--- a/BackTest/2019-11-14 BackTest LINK.xlsx
+++ b/BackTest/2019-11-14 BackTest LINK.xlsx
@@ -1501,20 +1501,14 @@
         <v>3295.683333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>3307</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1542,20 +1536,14 @@
         <v>3296.066666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>3312</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1583,20 +1571,14 @@
         <v>3296.45</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>3312</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1631,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1670,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1709,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1748,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1787,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1826,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1865,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1904,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1943,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1982,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2021,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2060,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2099,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2138,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2177,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2216,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2248,20 +2166,14 @@
         <v>3303.266666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>3301</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2289,20 +2201,14 @@
         <v>3303.416666666667</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>3301</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2330,20 +2236,14 @@
         <v>3303.483333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>3295</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2371,20 +2271,14 @@
         <v>3303.466666666667</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>3290</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2412,20 +2306,14 @@
         <v>3303.45</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>3290</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2453,20 +2341,14 @@
         <v>3303.433333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>3290</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2494,20 +2376,14 @@
         <v>3303.383333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>3289</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2535,20 +2411,14 @@
         <v>3303.35</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>3289</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2576,20 +2446,14 @@
         <v>3303.166666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>3283</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2617,20 +2481,14 @@
         <v>3302.9</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>3277</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2658,20 +2516,14 @@
         <v>3302.683333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>3280</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2699,20 +2551,14 @@
         <v>3302.433333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>3280</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2740,20 +2586,14 @@
         <v>3302.3</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>3279</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2781,20 +2621,14 @@
         <v>3302.05</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>3283</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2822,20 +2656,14 @@
         <v>3301.816666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>3278</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2863,20 +2691,14 @@
         <v>3301.483333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>3278</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2904,20 +2726,14 @@
         <v>3301.316666666667</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>3289</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2945,20 +2761,14 @@
         <v>3301.166666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>3289</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2986,20 +2796,14 @@
         <v>3301.033333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>3295</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3027,20 +2831,14 @@
         <v>3301</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>3295</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3068,20 +2866,14 @@
         <v>3301</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>3301</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3109,20 +2901,14 @@
         <v>3301.016666666667</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>3301</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3150,20 +2936,14 @@
         <v>3301.083333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>3304</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3191,20 +2971,14 @@
         <v>3301.333333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>3313</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3232,20 +3006,14 @@
         <v>3301.633333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>3318</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3273,20 +3041,14 @@
         <v>3302.116666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>3307</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3314,20 +3076,14 @@
         <v>3302.483333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>3318</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3355,20 +3111,14 @@
         <v>3302.7</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>3313</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3396,20 +3146,14 @@
         <v>3302.883333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>3313</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3437,20 +3181,14 @@
         <v>3303.1</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>3313</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3478,20 +3216,14 @@
         <v>3303.25</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>3313</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3519,20 +3251,14 @@
         <v>3303.383333333333</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>3312</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3560,20 +3286,14 @@
         <v>3303.6</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>3310</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3601,20 +3321,14 @@
         <v>3303.8</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>3320</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3642,20 +3356,14 @@
         <v>3303.916666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>3320</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3690,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3729,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3768,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3807,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3846,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3885,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3924,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3963,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4002,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4041,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4080,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4119,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4158,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4197,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4236,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4275,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4314,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4353,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4392,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4431,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4470,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4509,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4548,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4587,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4626,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4665,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4704,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4743,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4782,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4821,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4860,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4899,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4938,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4977,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5016,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5055,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5094,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5133,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5172,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5211,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5250,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5289,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5328,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5367,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5406,11 +4938,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5445,11 +4973,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5484,11 +5008,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5523,11 +5043,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5562,11 +5078,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5601,11 +5113,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5640,11 +5148,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5679,11 +5183,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5718,11 +5218,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5757,11 +5253,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5796,11 +5288,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5835,11 +5323,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5874,11 +5358,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5913,11 +5393,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5952,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5991,11 +5463,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6030,11 +5498,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6069,11 +5533,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6108,11 +5568,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6147,11 +5603,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6186,11 +5638,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6225,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6264,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6303,11 +5743,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6342,11 +5778,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6381,11 +5813,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6420,11 +5848,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6459,11 +5883,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6498,11 +5918,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6537,11 +5953,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6576,11 +5988,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6615,11 +6023,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6654,11 +6058,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6693,11 +6093,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6732,11 +6128,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6771,11 +6163,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6810,11 +6198,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6849,11 +6233,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6888,11 +6268,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6927,11 +6303,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6966,11 +6338,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7005,11 +6373,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7044,11 +6408,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7083,11 +6443,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7122,11 +6478,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7161,11 +6513,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7200,11 +6548,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7239,11 +6583,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7278,11 +6618,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7317,11 +6653,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7356,11 +6688,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7395,11 +6723,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7434,11 +6758,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7473,11 +6793,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7512,11 +6828,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7551,11 +6863,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7590,11 +6898,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7629,11 +6933,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7668,11 +6968,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7707,11 +7003,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7746,11 +7038,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7785,11 +7073,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7824,11 +7108,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7863,11 +7143,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7902,11 +7178,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7941,11 +7213,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7980,11 +7248,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8019,11 +7283,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8058,11 +7318,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8097,11 +7353,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8136,11 +7388,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8175,11 +7423,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8214,11 +7458,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8253,11 +7493,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8292,11 +7528,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8331,11 +7563,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8370,11 +7598,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8409,11 +7633,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8448,11 +7668,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8487,11 +7703,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8526,11 +7738,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8565,11 +7773,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8604,11 +7808,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8643,11 +7843,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8682,11 +7878,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8721,11 +7913,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8760,11 +7948,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8799,11 +7983,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8838,11 +8018,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8877,11 +8053,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8916,11 +8088,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8955,11 +8123,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8994,11 +8158,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9033,11 +8193,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9072,11 +8228,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9111,11 +8263,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9150,11 +8298,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9189,11 +8333,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9228,11 +8368,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9267,11 +8403,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9306,11 +8438,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9345,11 +8473,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9384,11 +8508,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9423,11 +8543,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9462,11 +8578,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9501,11 +8613,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9540,11 +8648,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9579,11 +8683,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9618,11 +8718,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9657,11 +8753,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9696,11 +8788,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9731,16 +8819,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9768,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
@@ -9873,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
@@ -9908,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
@@ -10153,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
@@ -10188,7 +9274,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
@@ -10223,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
@@ -10678,7 +9764,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
@@ -10713,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
@@ -10748,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
@@ -10783,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
@@ -10818,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
@@ -10853,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
@@ -10958,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
@@ -16450,13 +15536,17 @@
         <v>3468.466666666667</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>3458</v>
+      </c>
+      <c r="K433" t="n">
+        <v>3458</v>
+      </c>
       <c r="L433" t="inlineStr"/>
       <c r="M433" t="n">
         <v>1</v>
@@ -16485,14 +15575,22 @@
         <v>3468.283333333333</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>3458</v>
+      </c>
+      <c r="K434" t="n">
+        <v>3458</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16520,14 +15618,22 @@
         <v>3468</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
       </c>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>3462</v>
+      </c>
+      <c r="K435" t="n">
+        <v>3458</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -27195,13 +26301,17 @@
         <v>3486.016666666667</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I740" t="n">
         <v>0</v>
       </c>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>3466</v>
+      </c>
+      <c r="K740" t="n">
+        <v>3466</v>
+      </c>
       <c r="L740" t="inlineStr"/>
       <c r="M740" t="n">
         <v>1</v>
@@ -27230,14 +26340,22 @@
         <v>3485.75</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I741" t="n">
         <v>0</v>
       </c>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>3466</v>
+      </c>
+      <c r="K741" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -27265,14 +26383,22 @@
         <v>3485.366666666667</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I742" t="n">
         <v>0</v>
       </c>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>3466</v>
+      </c>
+      <c r="K742" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -27306,8 +26432,14 @@
         <v>0</v>
       </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr"/>
+      <c r="K743" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -27341,8 +26473,14 @@
         <v>0</v>
       </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr"/>
+      <c r="K744" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -27376,8 +26514,14 @@
         <v>0</v>
       </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr"/>
+      <c r="K745" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -27411,8 +26555,14 @@
         <v>0</v>
       </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr"/>
+      <c r="K746" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -27446,8 +26596,14 @@
         <v>0</v>
       </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr"/>
+      <c r="K747" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -27481,8 +26637,14 @@
         <v>0</v>
       </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr"/>
+      <c r="K748" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -27516,8 +26678,14 @@
         <v>0</v>
       </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr"/>
+      <c r="K749" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -27551,8 +26719,14 @@
         <v>0</v>
       </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr"/>
+      <c r="K750" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -27586,8 +26760,14 @@
         <v>0</v>
       </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr"/>
+      <c r="K751" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -27621,8 +26801,14 @@
         <v>0</v>
       </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr"/>
+      <c r="K752" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -27656,8 +26842,14 @@
         <v>0</v>
       </c>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr"/>
+      <c r="K753" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -27691,8 +26883,14 @@
         <v>0</v>
       </c>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr"/>
+      <c r="K754" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -27726,8 +26924,14 @@
         <v>0</v>
       </c>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr"/>
+      <c r="K755" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -27761,8 +26965,14 @@
         <v>0</v>
       </c>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr"/>
+      <c r="K756" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -27796,8 +27006,14 @@
         <v>0</v>
       </c>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr"/>
+      <c r="K757" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -27831,8 +27047,14 @@
         <v>0</v>
       </c>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr"/>
+      <c r="K758" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -27866,8 +27088,14 @@
         <v>0</v>
       </c>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr"/>
+      <c r="K759" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -27901,8 +27129,14 @@
         <v>0</v>
       </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr"/>
+      <c r="K760" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -27936,8 +27170,14 @@
         <v>0</v>
       </c>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr"/>
+      <c r="K761" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -27971,8 +27211,14 @@
         <v>0</v>
       </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr"/>
+      <c r="K762" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -28006,8 +27252,14 @@
         <v>0</v>
       </c>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr"/>
+      <c r="K763" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -28041,8 +27293,14 @@
         <v>0</v>
       </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr"/>
+      <c r="K764" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M764" t="n">
         <v>1</v>
       </c>
@@ -28076,8 +27334,14 @@
         <v>0</v>
       </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr"/>
+      <c r="K765" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M765" t="n">
         <v>1</v>
       </c>
@@ -28111,8 +27375,14 @@
         <v>0</v>
       </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
-      <c r="L766" t="inlineStr"/>
+      <c r="K766" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M766" t="n">
         <v>1</v>
       </c>
@@ -28146,8 +27416,14 @@
         <v>0</v>
       </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
-      <c r="L767" t="inlineStr"/>
+      <c r="K767" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M767" t="n">
         <v>1</v>
       </c>
@@ -28181,8 +27457,14 @@
         <v>0</v>
       </c>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
-      <c r="L768" t="inlineStr"/>
+      <c r="K768" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M768" t="n">
         <v>1</v>
       </c>
@@ -28216,8 +27498,14 @@
         <v>0</v>
       </c>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
-      <c r="L769" t="inlineStr"/>
+      <c r="K769" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M769" t="n">
         <v>1</v>
       </c>
@@ -28251,8 +27539,14 @@
         <v>0</v>
       </c>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr"/>
+      <c r="K770" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M770" t="n">
         <v>1</v>
       </c>
@@ -28286,8 +27580,14 @@
         <v>0</v>
       </c>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
-      <c r="L771" t="inlineStr"/>
+      <c r="K771" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M771" t="n">
         <v>1</v>
       </c>
@@ -28321,8 +27621,14 @@
         <v>0</v>
       </c>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
-      <c r="L772" t="inlineStr"/>
+      <c r="K772" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M772" t="n">
         <v>1</v>
       </c>
@@ -28356,8 +27662,14 @@
         <v>0</v>
       </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
-      <c r="L773" t="inlineStr"/>
+      <c r="K773" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M773" t="n">
         <v>1</v>
       </c>
@@ -28391,8 +27703,14 @@
         <v>0</v>
       </c>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
-      <c r="L774" t="inlineStr"/>
+      <c r="K774" t="n">
+        <v>3466</v>
+      </c>
+      <c r="L774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M774" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-14 BackTest LINK.xlsx
+++ b/BackTest/2019-11-14 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4246,14 +4246,10 @@
         <v>332483.1827112843</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>3289</v>
-      </c>
-      <c r="J117" t="n">
-        <v>3289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
@@ -4286,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>3289</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4322,218 +4312,188 @@
         <v>332152.8335112843</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3280</v>
+      </c>
+      <c r="C120" t="n">
+        <v>3280</v>
+      </c>
+      <c r="D120" t="n">
+        <v>3280</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3280</v>
+      </c>
+      <c r="F120" t="n">
+        <v>73.8539</v>
+      </c>
+      <c r="G120" t="n">
+        <v>332226.6874112842</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3280</v>
+      </c>
+      <c r="C121" t="n">
+        <v>3279</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3280</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3279</v>
+      </c>
+      <c r="F121" t="n">
+        <v>779.971</v>
+      </c>
+      <c r="G121" t="n">
+        <v>331446.7164112842</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3279</v>
+      </c>
+      <c r="C122" t="n">
+        <v>3287</v>
+      </c>
+      <c r="D122" t="n">
+        <v>3287</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3279</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1364.7848</v>
+      </c>
+      <c r="G122" t="n">
+        <v>332811.5012112843</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
         <v>3283</v>
       </c>
-      <c r="J119" t="n">
-        <v>3289</v>
-      </c>
-      <c r="K119" t="inlineStr">
+      <c r="C123" t="n">
+        <v>3283</v>
+      </c>
+      <c r="D123" t="n">
+        <v>3283</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3283</v>
+      </c>
+      <c r="F123" t="n">
+        <v>12</v>
+      </c>
+      <c r="G123" t="n">
+        <v>332799.5012112843</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3287</v>
+      </c>
+      <c r="J123" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3278</v>
+      </c>
+      <c r="C124" t="n">
+        <v>3283</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3283</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3276</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2242.4105</v>
+      </c>
+      <c r="G124" t="n">
+        <v>332799.5012112843</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3283</v>
+      </c>
+      <c r="J124" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K124" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>3280</v>
-      </c>
-      <c r="C120" t="n">
-        <v>3280</v>
-      </c>
-      <c r="D120" t="n">
-        <v>3280</v>
-      </c>
-      <c r="E120" t="n">
-        <v>3280</v>
-      </c>
-      <c r="F120" t="n">
-        <v>73.8539</v>
-      </c>
-      <c r="G120" t="n">
-        <v>332226.6874112842</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>3289</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>3280</v>
-      </c>
-      <c r="C121" t="n">
-        <v>3279</v>
-      </c>
-      <c r="D121" t="n">
-        <v>3280</v>
-      </c>
-      <c r="E121" t="n">
-        <v>3279</v>
-      </c>
-      <c r="F121" t="n">
-        <v>779.971</v>
-      </c>
-      <c r="G121" t="n">
-        <v>331446.7164112842</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>3289</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>3279</v>
-      </c>
-      <c r="C122" t="n">
-        <v>3287</v>
-      </c>
-      <c r="D122" t="n">
-        <v>3287</v>
-      </c>
-      <c r="E122" t="n">
-        <v>3279</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1364.7848</v>
-      </c>
-      <c r="G122" t="n">
-        <v>332811.5012112843</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>3289</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>3283</v>
-      </c>
-      <c r="C123" t="n">
-        <v>3283</v>
-      </c>
-      <c r="D123" t="n">
-        <v>3283</v>
-      </c>
-      <c r="E123" t="n">
-        <v>3283</v>
-      </c>
-      <c r="F123" t="n">
-        <v>12</v>
-      </c>
-      <c r="G123" t="n">
-        <v>332799.5012112843</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>3287</v>
-      </c>
-      <c r="J123" t="n">
-        <v>3289</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>3278</v>
-      </c>
-      <c r="C124" t="n">
-        <v>3283</v>
-      </c>
-      <c r="D124" t="n">
-        <v>3283</v>
-      </c>
-      <c r="E124" t="n">
-        <v>3276</v>
-      </c>
-      <c r="F124" t="n">
-        <v>2242.4105</v>
-      </c>
-      <c r="G124" t="n">
-        <v>332799.5012112843</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>3283</v>
-      </c>
-      <c r="J124" t="n">
-        <v>3289</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4562,13 +4522,13 @@
         <v>332445.5628112843</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>3283</v>
       </c>
       <c r="J125" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4603,13 +4563,13 @@
         <v>332457.4628112843</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>3278</v>
       </c>
       <c r="J126" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4644,13 +4604,13 @@
         <v>333286.6503112843</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>3289</v>
       </c>
       <c r="J127" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4685,13 +4645,13 @@
         <v>333298.5503112843</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>3290</v>
       </c>
       <c r="J128" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4726,13 +4686,13 @@
         <v>333326.0760112843</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>3295</v>
       </c>
       <c r="J129" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4767,13 +4727,13 @@
         <v>333343.9260112843</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>3299</v>
       </c>
       <c r="J130" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4808,13 +4768,13 @@
         <v>333427.9724551099</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>3301</v>
       </c>
       <c r="J131" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -4849,13 +4809,13 @@
         <v>333656.5913112843</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>3304</v>
       </c>
       <c r="J132" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -4890,13 +4850,13 @@
         <v>334437.0952112843</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>3307</v>
       </c>
       <c r="J133" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -4931,13 +4891,13 @@
         <v>334437.0952112843</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>3318</v>
       </c>
       <c r="J134" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -4972,13 +4932,13 @@
         <v>334447.5478112843</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>3318</v>
       </c>
       <c r="J135" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5013,13 +4973,13 @@
         <v>337947.5478112843</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>3319</v>
       </c>
       <c r="J136" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5054,13 +5014,13 @@
         <v>337923.8393112843</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>3322</v>
       </c>
       <c r="J137" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5095,13 +5055,13 @@
         <v>337902.5478112843</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>3313</v>
       </c>
       <c r="J138" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5136,13 +5096,13 @@
         <v>337908.5478112843</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>3311</v>
       </c>
       <c r="J139" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5177,13 +5137,13 @@
         <v>337908.5478112843</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>3313</v>
       </c>
       <c r="J140" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5218,13 +5178,13 @@
         <v>337906.9448112843</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>3313</v>
       </c>
       <c r="J141" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5259,13 +5219,13 @@
         <v>338058.2668112843</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>3312</v>
       </c>
       <c r="J142" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5300,13 +5260,11 @@
         <v>338058.2668112843</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>3320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5341,13 +5299,11 @@
         <v>338058.2668112843</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>3320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5382,13 +5338,11 @@
         <v>338058.2668112843</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5427,7 +5381,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5466,7 +5420,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5505,7 +5459,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5544,7 +5498,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5583,7 +5537,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5622,7 +5576,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5661,7 +5615,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5700,7 +5654,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5739,7 +5693,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5778,7 +5732,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5817,7 +5771,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5856,7 +5810,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5895,7 +5849,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5934,7 +5888,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5973,7 +5927,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6012,7 +5966,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6051,7 +6005,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6090,7 +6044,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6129,7 +6083,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6168,7 +6122,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6207,7 +6161,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6246,7 +6200,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6285,7 +6239,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6324,7 +6278,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6363,7 +6317,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6402,7 +6356,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6441,7 +6395,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6480,7 +6434,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6519,7 +6473,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6558,7 +6512,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6597,7 +6551,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6636,7 +6590,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6675,7 +6629,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6714,7 +6668,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6753,7 +6707,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6792,7 +6746,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6831,7 +6785,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6870,7 +6824,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6909,7 +6863,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6948,7 +6902,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6987,7 +6941,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7026,7 +6980,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7065,7 +7019,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7104,7 +7058,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7143,7 +7097,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7182,7 +7136,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7221,7 +7175,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7260,7 +7214,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7299,7 +7253,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7338,7 +7292,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7377,7 +7331,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7416,7 +7370,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7455,7 +7409,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7494,7 +7448,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7533,7 +7487,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7572,7 +7526,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7611,7 +7565,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7650,7 +7604,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7689,7 +7643,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7728,7 +7682,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7767,7 +7721,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7806,7 +7760,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7845,7 +7799,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7884,7 +7838,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7923,7 +7877,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7962,7 +7916,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8001,7 +7955,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8040,7 +7994,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8079,7 +8033,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8118,7 +8072,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8157,7 +8111,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8196,7 +8150,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8235,7 +8189,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8274,7 +8228,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8313,7 +8267,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8352,7 +8306,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8391,7 +8345,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8430,7 +8384,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8469,7 +8423,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8508,7 +8462,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8547,7 +8501,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8586,7 +8540,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8625,7 +8579,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8664,7 +8618,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8703,7 +8657,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8742,7 +8696,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8781,7 +8735,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8820,7 +8774,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8859,7 +8813,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8898,7 +8852,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8937,7 +8891,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8976,7 +8930,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9015,7 +8969,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9054,7 +9008,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9093,7 +9047,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9132,7 +9086,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9171,7 +9125,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9210,7 +9164,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9249,7 +9203,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9288,7 +9242,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9327,7 +9281,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9366,7 +9320,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9405,7 +9359,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9444,7 +9398,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9483,7 +9437,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9522,7 +9476,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9561,7 +9515,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9600,7 +9554,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9639,7 +9593,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9678,7 +9632,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9717,7 +9671,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9756,7 +9710,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9795,7 +9749,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9834,7 +9788,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9873,7 +9827,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9912,7 +9866,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9951,7 +9905,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9990,7 +9944,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10029,7 +9983,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10068,7 +10022,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10107,7 +10061,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10146,7 +10100,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10185,7 +10139,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10224,7 +10178,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10263,7 +10217,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10302,7 +10256,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10341,7 +10295,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10380,7 +10334,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10419,7 +10373,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10458,7 +10412,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10497,7 +10451,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10536,7 +10490,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10575,7 +10529,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10614,7 +10568,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10653,7 +10607,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10692,7 +10646,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10731,7 +10685,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10770,7 +10724,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10809,7 +10763,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10848,7 +10802,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10887,7 +10841,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10926,7 +10880,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10965,7 +10919,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11004,7 +10958,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11043,7 +10997,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11078,1143 +11032,1349 @@
         <v>382821.024682345</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>3465</v>
+      </c>
+      <c r="C292" t="n">
+        <v>3442</v>
+      </c>
+      <c r="D292" t="n">
+        <v>3465</v>
+      </c>
+      <c r="E292" t="n">
+        <v>3442</v>
+      </c>
+      <c r="F292" t="n">
+        <v>739.7184</v>
+      </c>
+      <c r="G292" t="n">
+        <v>382081.306282345</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>3464</v>
+      </c>
+      <c r="C293" t="n">
+        <v>3470</v>
+      </c>
+      <c r="D293" t="n">
+        <v>3470</v>
+      </c>
+      <c r="E293" t="n">
+        <v>3464</v>
+      </c>
+      <c r="F293" t="n">
+        <v>3960.0556</v>
+      </c>
+      <c r="G293" t="n">
+        <v>386041.3618823451</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>3470</v>
+      </c>
+      <c r="C294" t="n">
+        <v>3470</v>
+      </c>
+      <c r="D294" t="n">
+        <v>3473</v>
+      </c>
+      <c r="E294" t="n">
+        <v>3470</v>
+      </c>
+      <c r="F294" t="n">
+        <v>2684.72484825799</v>
+      </c>
+      <c r="G294" t="n">
+        <v>386041.3618823451</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>3470</v>
+      </c>
+      <c r="C295" t="n">
+        <v>3470</v>
+      </c>
+      <c r="D295" t="n">
+        <v>3473</v>
+      </c>
+      <c r="E295" t="n">
+        <v>3470</v>
+      </c>
+      <c r="F295" t="n">
+        <v>695.1129</v>
+      </c>
+      <c r="G295" t="n">
+        <v>386041.3618823451</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>3473</v>
+      </c>
+      <c r="C296" t="n">
+        <v>3480</v>
+      </c>
+      <c r="D296" t="n">
+        <v>3480</v>
+      </c>
+      <c r="E296" t="n">
+        <v>3471</v>
+      </c>
+      <c r="F296" t="n">
+        <v>4768.322514402693</v>
+      </c>
+      <c r="G296" t="n">
+        <v>390809.6843967477</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>3480</v>
+      </c>
+      <c r="C297" t="n">
+        <v>3490</v>
+      </c>
+      <c r="D297" t="n">
+        <v>3490</v>
+      </c>
+      <c r="E297" t="n">
+        <v>3480</v>
+      </c>
+      <c r="F297" t="n">
+        <v>6558.414250835019</v>
+      </c>
+      <c r="G297" t="n">
+        <v>397368.0986475828</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>3490</v>
+      </c>
+      <c r="C298" t="n">
+        <v>3495</v>
+      </c>
+      <c r="D298" t="n">
+        <v>3495</v>
+      </c>
+      <c r="E298" t="n">
+        <v>3490</v>
+      </c>
+      <c r="F298" t="n">
+        <v>4090.057</v>
+      </c>
+      <c r="G298" t="n">
+        <v>401458.1556475827</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>3483</v>
+      </c>
+      <c r="C299" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D299" t="n">
+        <v>3500</v>
+      </c>
+      <c r="E299" t="n">
+        <v>3483</v>
+      </c>
+      <c r="F299" t="n">
+        <v>11850.8616865043</v>
+      </c>
+      <c r="G299" t="n">
+        <v>413309.0173340871</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>3502</v>
+      </c>
+      <c r="C300" t="n">
+        <v>3520</v>
+      </c>
+      <c r="D300" t="n">
+        <v>3520</v>
+      </c>
+      <c r="E300" t="n">
+        <v>3502</v>
+      </c>
+      <c r="F300" t="n">
+        <v>9658.372664772727</v>
+      </c>
+      <c r="G300" t="n">
+        <v>422967.3899988598</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>3520</v>
+      </c>
+      <c r="C301" t="n">
+        <v>3520</v>
+      </c>
+      <c r="D301" t="n">
+        <v>3520</v>
+      </c>
+      <c r="E301" t="n">
+        <v>3520</v>
+      </c>
+      <c r="F301" t="n">
+        <v>291.0946</v>
+      </c>
+      <c r="G301" t="n">
+        <v>422967.3899988598</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>3520</v>
+      </c>
+      <c r="C302" t="n">
+        <v>3509</v>
+      </c>
+      <c r="D302" t="n">
+        <v>3520</v>
+      </c>
+      <c r="E302" t="n">
+        <v>3506</v>
+      </c>
+      <c r="F302" t="n">
+        <v>2763.5711</v>
+      </c>
+      <c r="G302" t="n">
+        <v>420203.8188988598</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>3509</v>
+      </c>
+      <c r="C303" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D303" t="n">
+        <v>3509</v>
+      </c>
+      <c r="E303" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F303" t="n">
+        <v>10781.49607376209</v>
+      </c>
+      <c r="G303" t="n">
+        <v>409422.3228250977</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>3490</v>
+      </c>
+      <c r="C304" t="n">
+        <v>3502</v>
+      </c>
+      <c r="D304" t="n">
+        <v>3502</v>
+      </c>
+      <c r="E304" t="n">
+        <v>3489</v>
+      </c>
+      <c r="F304" t="n">
+        <v>2445.346334094803</v>
+      </c>
+      <c r="G304" t="n">
+        <v>411867.6691591925</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>3502</v>
+      </c>
+      <c r="C305" t="n">
+        <v>3487</v>
+      </c>
+      <c r="D305" t="n">
+        <v>3508</v>
+      </c>
+      <c r="E305" t="n">
+        <v>3481</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1565.968954670774</v>
+      </c>
+      <c r="G305" t="n">
+        <v>410301.7002045218</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>3488</v>
+      </c>
+      <c r="C306" t="n">
+        <v>3502</v>
+      </c>
+      <c r="D306" t="n">
+        <v>3504</v>
+      </c>
+      <c r="E306" t="n">
+        <v>3488</v>
+      </c>
+      <c r="F306" t="n">
+        <v>2285.749060045662</v>
+      </c>
+      <c r="G306" t="n">
+        <v>412587.4492645674</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>3502</v>
+      </c>
+      <c r="C307" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D307" t="n">
+        <v>3502</v>
+      </c>
+      <c r="E307" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F307" t="n">
+        <v>2259.836305025699</v>
+      </c>
+      <c r="G307" t="n">
+        <v>410327.6129595417</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>3500</v>
+      </c>
+      <c r="C308" t="n">
+        <v>3503</v>
+      </c>
+      <c r="D308" t="n">
+        <v>3503</v>
+      </c>
+      <c r="E308" t="n">
+        <v>3495</v>
+      </c>
+      <c r="F308" t="n">
+        <v>3368.3979</v>
+      </c>
+      <c r="G308" t="n">
+        <v>413696.0108595417</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>3503</v>
+      </c>
+      <c r="C309" t="n">
+        <v>3518</v>
+      </c>
+      <c r="D309" t="n">
+        <v>3518</v>
+      </c>
+      <c r="E309" t="n">
+        <v>3503</v>
+      </c>
+      <c r="F309" t="n">
+        <v>992.8945399543379</v>
+      </c>
+      <c r="G309" t="n">
+        <v>414688.905399496</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>3519</v>
+      </c>
+      <c r="C310" t="n">
+        <v>3530</v>
+      </c>
+      <c r="D310" t="n">
+        <v>3530</v>
+      </c>
+      <c r="E310" t="n">
+        <v>3518</v>
+      </c>
+      <c r="F310" t="n">
+        <v>4535.8567</v>
+      </c>
+      <c r="G310" t="n">
+        <v>419224.762099496</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>3529</v>
+      </c>
+      <c r="C311" t="n">
+        <v>3521</v>
+      </c>
+      <c r="D311" t="n">
+        <v>3531</v>
+      </c>
+      <c r="E311" t="n">
+        <v>3521</v>
+      </c>
+      <c r="F311" t="n">
+        <v>4587.239419897224</v>
+      </c>
+      <c r="G311" t="n">
+        <v>414637.5226795988</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>3525</v>
+      </c>
+      <c r="C312" t="n">
+        <v>3520</v>
+      </c>
+      <c r="D312" t="n">
+        <v>3525</v>
+      </c>
+      <c r="E312" t="n">
+        <v>3520</v>
+      </c>
+      <c r="F312" t="n">
+        <v>1173.1912</v>
+      </c>
+      <c r="G312" t="n">
+        <v>413464.3314795988</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>3520</v>
+      </c>
+      <c r="C313" t="n">
+        <v>3520</v>
+      </c>
+      <c r="D313" t="n">
+        <v>3520</v>
+      </c>
+      <c r="E313" t="n">
+        <v>3519</v>
+      </c>
+      <c r="F313" t="n">
+        <v>1797.4792</v>
+      </c>
+      <c r="G313" t="n">
+        <v>413464.3314795988</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>3523</v>
+      </c>
+      <c r="C314" t="n">
+        <v>3523</v>
+      </c>
+      <c r="D314" t="n">
+        <v>3524</v>
+      </c>
+      <c r="E314" t="n">
+        <v>3520</v>
+      </c>
+      <c r="F314" t="n">
+        <v>4767.6475</v>
+      </c>
+      <c r="G314" t="n">
+        <v>418231.9789795988</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>3526</v>
+      </c>
+      <c r="C315" t="n">
+        <v>3509</v>
+      </c>
+      <c r="D315" t="n">
+        <v>3526</v>
+      </c>
+      <c r="E315" t="n">
+        <v>3492</v>
+      </c>
+      <c r="F315" t="n">
+        <v>7419.684</v>
+      </c>
+      <c r="G315" t="n">
+        <v>410812.2949795988</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>3509</v>
+      </c>
+      <c r="C316" t="n">
+        <v>3495</v>
+      </c>
+      <c r="D316" t="n">
+        <v>3509</v>
+      </c>
+      <c r="E316" t="n">
+        <v>3490</v>
+      </c>
+      <c r="F316" t="n">
+        <v>460.2093583642063</v>
+      </c>
+      <c r="G316" t="n">
+        <v>410352.0856212346</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>3490</v>
+      </c>
+      <c r="C317" t="n">
+        <v>3490</v>
+      </c>
+      <c r="D317" t="n">
+        <v>3490</v>
+      </c>
+      <c r="E317" t="n">
+        <v>3490</v>
+      </c>
+      <c r="F317" t="n">
+        <v>594.8805</v>
+      </c>
+      <c r="G317" t="n">
+        <v>409757.2051212346</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>3490</v>
+      </c>
+      <c r="C318" t="n">
+        <v>3505</v>
+      </c>
+      <c r="D318" t="n">
+        <v>3505</v>
+      </c>
+      <c r="E318" t="n">
+        <v>3489</v>
+      </c>
+      <c r="F318" t="n">
+        <v>1100.1904</v>
+      </c>
+      <c r="G318" t="n">
+        <v>410857.3955212346</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>3502</v>
+      </c>
+      <c r="C319" t="n">
+        <v>3502</v>
+      </c>
+      <c r="D319" t="n">
+        <v>3502</v>
+      </c>
+      <c r="E319" t="n">
+        <v>3502</v>
+      </c>
+      <c r="F319" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="G319" t="n">
+        <v>410851.4455212346</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>3504</v>
+      </c>
+      <c r="C320" t="n">
+        <v>3515</v>
+      </c>
+      <c r="D320" t="n">
+        <v>3515</v>
+      </c>
+      <c r="E320" t="n">
+        <v>3504</v>
+      </c>
+      <c r="F320" t="n">
+        <v>173.7443416357937</v>
+      </c>
+      <c r="G320" t="n">
+        <v>411025.1898628704</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>3515</v>
+      </c>
+      <c r="C321" t="n">
+        <v>3514</v>
+      </c>
+      <c r="D321" t="n">
+        <v>3515</v>
+      </c>
+      <c r="E321" t="n">
+        <v>3514</v>
+      </c>
+      <c r="F321" t="n">
+        <v>297.6940192034139</v>
+      </c>
+      <c r="G321" t="n">
+        <v>410727.495843667</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>3502</v>
+      </c>
+      <c r="C322" t="n">
+        <v>3514</v>
+      </c>
+      <c r="D322" t="n">
+        <v>3514</v>
+      </c>
+      <c r="E322" t="n">
+        <v>3497</v>
+      </c>
+      <c r="F322" t="n">
+        <v>89.4098</v>
+      </c>
+      <c r="G322" t="n">
+        <v>410727.495843667</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>3514</v>
+      </c>
+      <c r="C323" t="n">
+        <v>3543</v>
+      </c>
+      <c r="D323" t="n">
+        <v>3543</v>
+      </c>
+      <c r="E323" t="n">
+        <v>3514</v>
+      </c>
+      <c r="F323" t="n">
+        <v>8894.077600000001</v>
+      </c>
+      <c r="G323" t="n">
+        <v>419621.573443667</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>3541</v>
+      </c>
+      <c r="C324" t="n">
+        <v>3555</v>
+      </c>
+      <c r="D324" t="n">
+        <v>3555</v>
+      </c>
+      <c r="E324" t="n">
+        <v>3538</v>
+      </c>
+      <c r="F324" t="n">
+        <v>6492.7922</v>
+      </c>
+      <c r="G324" t="n">
+        <v>426114.365643667</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>3555</v>
+      </c>
+      <c r="C325" t="n">
+        <v>3594</v>
+      </c>
+      <c r="D325" t="n">
+        <v>3594</v>
+      </c>
+      <c r="E325" t="n">
+        <v>3555</v>
+      </c>
+      <c r="F325" t="n">
+        <v>8644.361863858558</v>
+      </c>
+      <c r="G325" t="n">
+        <v>434758.7275075255</v>
+      </c>
+      <c r="H325" t="n">
+        <v>2</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>3287</v>
+      </c>
+      <c r="K325" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L291" t="n">
-        <v>1.048511705685619</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>3465</v>
-      </c>
-      <c r="C292" t="n">
-        <v>3442</v>
-      </c>
-      <c r="D292" t="n">
-        <v>3465</v>
-      </c>
-      <c r="E292" t="n">
-        <v>3442</v>
-      </c>
-      <c r="F292" t="n">
-        <v>739.7184</v>
-      </c>
-      <c r="G292" t="n">
-        <v>382081.306282345</v>
-      </c>
-      <c r="H292" t="n">
-        <v>3</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>3464</v>
-      </c>
-      <c r="C293" t="n">
-        <v>3470</v>
-      </c>
-      <c r="D293" t="n">
-        <v>3470</v>
-      </c>
-      <c r="E293" t="n">
-        <v>3464</v>
-      </c>
-      <c r="F293" t="n">
-        <v>3960.0556</v>
-      </c>
-      <c r="G293" t="n">
-        <v>386041.3618823451</v>
-      </c>
-      <c r="H293" t="n">
-        <v>3</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>3470</v>
-      </c>
-      <c r="C294" t="n">
-        <v>3470</v>
-      </c>
-      <c r="D294" t="n">
-        <v>3473</v>
-      </c>
-      <c r="E294" t="n">
-        <v>3470</v>
-      </c>
-      <c r="F294" t="n">
-        <v>2684.72484825799</v>
-      </c>
-      <c r="G294" t="n">
-        <v>386041.3618823451</v>
-      </c>
-      <c r="H294" t="n">
-        <v>3</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>3470</v>
-      </c>
-      <c r="C295" t="n">
-        <v>3470</v>
-      </c>
-      <c r="D295" t="n">
-        <v>3473</v>
-      </c>
-      <c r="E295" t="n">
-        <v>3470</v>
-      </c>
-      <c r="F295" t="n">
-        <v>695.1129</v>
-      </c>
-      <c r="G295" t="n">
-        <v>386041.3618823451</v>
-      </c>
-      <c r="H295" t="n">
-        <v>3</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>3473</v>
-      </c>
-      <c r="C296" t="n">
-        <v>3480</v>
-      </c>
-      <c r="D296" t="n">
-        <v>3480</v>
-      </c>
-      <c r="E296" t="n">
-        <v>3471</v>
-      </c>
-      <c r="F296" t="n">
-        <v>4768.322514402693</v>
-      </c>
-      <c r="G296" t="n">
-        <v>390809.6843967477</v>
-      </c>
-      <c r="H296" t="n">
-        <v>3</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>3480</v>
-      </c>
-      <c r="C297" t="n">
-        <v>3490</v>
-      </c>
-      <c r="D297" t="n">
-        <v>3490</v>
-      </c>
-      <c r="E297" t="n">
-        <v>3480</v>
-      </c>
-      <c r="F297" t="n">
-        <v>6558.414250835019</v>
-      </c>
-      <c r="G297" t="n">
-        <v>397368.0986475828</v>
-      </c>
-      <c r="H297" t="n">
-        <v>3</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>3490</v>
-      </c>
-      <c r="C298" t="n">
-        <v>3495</v>
-      </c>
-      <c r="D298" t="n">
-        <v>3495</v>
-      </c>
-      <c r="E298" t="n">
-        <v>3490</v>
-      </c>
-      <c r="F298" t="n">
-        <v>4090.057</v>
-      </c>
-      <c r="G298" t="n">
-        <v>401458.1556475827</v>
-      </c>
-      <c r="H298" t="n">
-        <v>3</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>3483</v>
-      </c>
-      <c r="C299" t="n">
-        <v>3500</v>
-      </c>
-      <c r="D299" t="n">
-        <v>3500</v>
-      </c>
-      <c r="E299" t="n">
-        <v>3483</v>
-      </c>
-      <c r="F299" t="n">
-        <v>11850.8616865043</v>
-      </c>
-      <c r="G299" t="n">
-        <v>413309.0173340871</v>
-      </c>
-      <c r="H299" t="n">
-        <v>3</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>3502</v>
-      </c>
-      <c r="C300" t="n">
-        <v>3520</v>
-      </c>
-      <c r="D300" t="n">
-        <v>3520</v>
-      </c>
-      <c r="E300" t="n">
-        <v>3502</v>
-      </c>
-      <c r="F300" t="n">
-        <v>9658.372664772727</v>
-      </c>
-      <c r="G300" t="n">
-        <v>422967.3899988598</v>
-      </c>
-      <c r="H300" t="n">
-        <v>3</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>3520</v>
-      </c>
-      <c r="C301" t="n">
-        <v>3520</v>
-      </c>
-      <c r="D301" t="n">
-        <v>3520</v>
-      </c>
-      <c r="E301" t="n">
-        <v>3520</v>
-      </c>
-      <c r="F301" t="n">
-        <v>291.0946</v>
-      </c>
-      <c r="G301" t="n">
-        <v>422967.3899988598</v>
-      </c>
-      <c r="H301" t="n">
-        <v>3</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>3520</v>
-      </c>
-      <c r="C302" t="n">
-        <v>3509</v>
-      </c>
-      <c r="D302" t="n">
-        <v>3520</v>
-      </c>
-      <c r="E302" t="n">
-        <v>3506</v>
-      </c>
-      <c r="F302" t="n">
-        <v>2763.5711</v>
-      </c>
-      <c r="G302" t="n">
-        <v>420203.8188988598</v>
-      </c>
-      <c r="H302" t="n">
-        <v>3</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>3509</v>
-      </c>
-      <c r="C303" t="n">
-        <v>3500</v>
-      </c>
-      <c r="D303" t="n">
-        <v>3509</v>
-      </c>
-      <c r="E303" t="n">
-        <v>3500</v>
-      </c>
-      <c r="F303" t="n">
-        <v>10781.49607376209</v>
-      </c>
-      <c r="G303" t="n">
-        <v>409422.3228250977</v>
-      </c>
-      <c r="H303" t="n">
-        <v>3</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>3490</v>
-      </c>
-      <c r="C304" t="n">
-        <v>3502</v>
-      </c>
-      <c r="D304" t="n">
-        <v>3502</v>
-      </c>
-      <c r="E304" t="n">
-        <v>3489</v>
-      </c>
-      <c r="F304" t="n">
-        <v>2445.346334094803</v>
-      </c>
-      <c r="G304" t="n">
-        <v>411867.6691591925</v>
-      </c>
-      <c r="H304" t="n">
-        <v>3</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>3502</v>
-      </c>
-      <c r="C305" t="n">
-        <v>3487</v>
-      </c>
-      <c r="D305" t="n">
-        <v>3508</v>
-      </c>
-      <c r="E305" t="n">
-        <v>3481</v>
-      </c>
-      <c r="F305" t="n">
-        <v>1565.968954670774</v>
-      </c>
-      <c r="G305" t="n">
-        <v>410301.7002045218</v>
-      </c>
-      <c r="H305" t="n">
-        <v>3</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>3488</v>
-      </c>
-      <c r="C306" t="n">
-        <v>3502</v>
-      </c>
-      <c r="D306" t="n">
-        <v>3504</v>
-      </c>
-      <c r="E306" t="n">
-        <v>3488</v>
-      </c>
-      <c r="F306" t="n">
-        <v>2285.749060045662</v>
-      </c>
-      <c r="G306" t="n">
-        <v>412587.4492645674</v>
-      </c>
-      <c r="H306" t="n">
-        <v>3</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>3502</v>
-      </c>
-      <c r="C307" t="n">
-        <v>3500</v>
-      </c>
-      <c r="D307" t="n">
-        <v>3502</v>
-      </c>
-      <c r="E307" t="n">
-        <v>3500</v>
-      </c>
-      <c r="F307" t="n">
-        <v>2259.836305025699</v>
-      </c>
-      <c r="G307" t="n">
-        <v>410327.6129595417</v>
-      </c>
-      <c r="H307" t="n">
-        <v>3</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>3500</v>
-      </c>
-      <c r="C308" t="n">
-        <v>3503</v>
-      </c>
-      <c r="D308" t="n">
-        <v>3503</v>
-      </c>
-      <c r="E308" t="n">
-        <v>3495</v>
-      </c>
-      <c r="F308" t="n">
-        <v>3368.3979</v>
-      </c>
-      <c r="G308" t="n">
-        <v>413696.0108595417</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>3503</v>
-      </c>
-      <c r="C309" t="n">
-        <v>3518</v>
-      </c>
-      <c r="D309" t="n">
-        <v>3518</v>
-      </c>
-      <c r="E309" t="n">
-        <v>3503</v>
-      </c>
-      <c r="F309" t="n">
-        <v>992.8945399543379</v>
-      </c>
-      <c r="G309" t="n">
-        <v>414688.905399496</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>3519</v>
-      </c>
-      <c r="C310" t="n">
-        <v>3530</v>
-      </c>
-      <c r="D310" t="n">
-        <v>3530</v>
-      </c>
-      <c r="E310" t="n">
-        <v>3518</v>
-      </c>
-      <c r="F310" t="n">
-        <v>4535.8567</v>
-      </c>
-      <c r="G310" t="n">
-        <v>419224.762099496</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>3529</v>
-      </c>
-      <c r="C311" t="n">
-        <v>3521</v>
-      </c>
-      <c r="D311" t="n">
-        <v>3531</v>
-      </c>
-      <c r="E311" t="n">
-        <v>3521</v>
-      </c>
-      <c r="F311" t="n">
-        <v>4587.239419897224</v>
-      </c>
-      <c r="G311" t="n">
-        <v>414637.5226795988</v>
-      </c>
-      <c r="H311" t="n">
-        <v>3</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>3525</v>
-      </c>
-      <c r="C312" t="n">
-        <v>3520</v>
-      </c>
-      <c r="D312" t="n">
-        <v>3525</v>
-      </c>
-      <c r="E312" t="n">
-        <v>3520</v>
-      </c>
-      <c r="F312" t="n">
-        <v>1173.1912</v>
-      </c>
-      <c r="G312" t="n">
-        <v>413464.3314795988</v>
-      </c>
-      <c r="H312" t="n">
-        <v>3</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>3520</v>
-      </c>
-      <c r="C313" t="n">
-        <v>3520</v>
-      </c>
-      <c r="D313" t="n">
-        <v>3520</v>
-      </c>
-      <c r="E313" t="n">
-        <v>3519</v>
-      </c>
-      <c r="F313" t="n">
-        <v>1797.4792</v>
-      </c>
-      <c r="G313" t="n">
-        <v>413464.3314795988</v>
-      </c>
-      <c r="H313" t="n">
-        <v>3</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>3523</v>
-      </c>
-      <c r="C314" t="n">
-        <v>3523</v>
-      </c>
-      <c r="D314" t="n">
-        <v>3524</v>
-      </c>
-      <c r="E314" t="n">
-        <v>3520</v>
-      </c>
-      <c r="F314" t="n">
-        <v>4767.6475</v>
-      </c>
-      <c r="G314" t="n">
-        <v>418231.9789795988</v>
-      </c>
-      <c r="H314" t="n">
-        <v>3</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>3526</v>
-      </c>
-      <c r="C315" t="n">
-        <v>3509</v>
-      </c>
-      <c r="D315" t="n">
-        <v>3526</v>
-      </c>
-      <c r="E315" t="n">
-        <v>3492</v>
-      </c>
-      <c r="F315" t="n">
-        <v>7419.684</v>
-      </c>
-      <c r="G315" t="n">
-        <v>410812.2949795988</v>
-      </c>
-      <c r="H315" t="n">
-        <v>3</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>3509</v>
-      </c>
-      <c r="C316" t="n">
-        <v>3495</v>
-      </c>
-      <c r="D316" t="n">
-        <v>3509</v>
-      </c>
-      <c r="E316" t="n">
-        <v>3490</v>
-      </c>
-      <c r="F316" t="n">
-        <v>460.2093583642063</v>
-      </c>
-      <c r="G316" t="n">
-        <v>410352.0856212346</v>
-      </c>
-      <c r="H316" t="n">
-        <v>3</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>3490</v>
-      </c>
-      <c r="C317" t="n">
-        <v>3490</v>
-      </c>
-      <c r="D317" t="n">
-        <v>3490</v>
-      </c>
-      <c r="E317" t="n">
-        <v>3490</v>
-      </c>
-      <c r="F317" t="n">
-        <v>594.8805</v>
-      </c>
-      <c r="G317" t="n">
-        <v>409757.2051212346</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>3490</v>
-      </c>
-      <c r="C318" t="n">
-        <v>3505</v>
-      </c>
-      <c r="D318" t="n">
-        <v>3505</v>
-      </c>
-      <c r="E318" t="n">
-        <v>3489</v>
-      </c>
-      <c r="F318" t="n">
-        <v>1100.1904</v>
-      </c>
-      <c r="G318" t="n">
-        <v>410857.3955212346</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>3502</v>
-      </c>
-      <c r="C319" t="n">
-        <v>3502</v>
-      </c>
-      <c r="D319" t="n">
-        <v>3502</v>
-      </c>
-      <c r="E319" t="n">
-        <v>3502</v>
-      </c>
-      <c r="F319" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="G319" t="n">
-        <v>410851.4455212346</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>3504</v>
-      </c>
-      <c r="C320" t="n">
-        <v>3515</v>
-      </c>
-      <c r="D320" t="n">
-        <v>3515</v>
-      </c>
-      <c r="E320" t="n">
-        <v>3504</v>
-      </c>
-      <c r="F320" t="n">
-        <v>173.7443416357937</v>
-      </c>
-      <c r="G320" t="n">
-        <v>411025.1898628704</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>3515</v>
-      </c>
-      <c r="C321" t="n">
-        <v>3514</v>
-      </c>
-      <c r="D321" t="n">
-        <v>3515</v>
-      </c>
-      <c r="E321" t="n">
-        <v>3514</v>
-      </c>
-      <c r="F321" t="n">
-        <v>297.6940192034139</v>
-      </c>
-      <c r="G321" t="n">
-        <v>410727.495843667</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>3502</v>
-      </c>
-      <c r="C322" t="n">
-        <v>3514</v>
-      </c>
-      <c r="D322" t="n">
-        <v>3514</v>
-      </c>
-      <c r="E322" t="n">
-        <v>3497</v>
-      </c>
-      <c r="F322" t="n">
-        <v>89.4098</v>
-      </c>
-      <c r="G322" t="n">
-        <v>410727.495843667</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>3514</v>
-      </c>
-      <c r="C323" t="n">
-        <v>3543</v>
-      </c>
-      <c r="D323" t="n">
-        <v>3543</v>
-      </c>
-      <c r="E323" t="n">
-        <v>3514</v>
-      </c>
-      <c r="F323" t="n">
-        <v>8894.077600000001</v>
-      </c>
-      <c r="G323" t="n">
-        <v>419621.573443667</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>3541</v>
-      </c>
-      <c r="C324" t="n">
-        <v>3555</v>
-      </c>
-      <c r="D324" t="n">
-        <v>3555</v>
-      </c>
-      <c r="E324" t="n">
-        <v>3538</v>
-      </c>
-      <c r="F324" t="n">
-        <v>6492.7922</v>
-      </c>
-      <c r="G324" t="n">
-        <v>426114.365643667</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>3555</v>
-      </c>
-      <c r="C325" t="n">
-        <v>3594</v>
-      </c>
-      <c r="D325" t="n">
-        <v>3594</v>
-      </c>
-      <c r="E325" t="n">
-        <v>3555</v>
-      </c>
-      <c r="F325" t="n">
-        <v>8644.361863858558</v>
-      </c>
-      <c r="G325" t="n">
-        <v>434758.7275075255</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+        <v>1.088398235473076</v>
+      </c>
+      <c r="M325" t="n">
+        <v>1.014674411494956</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12239,7 +12399,7 @@
         <v>431464.7259224005</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12272,7 +12432,7 @@
         <v>428692.8902224005</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12305,7 +12465,7 @@
         <v>429340.3982224005</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12338,7 +12498,7 @@
         <v>430606.3319224005</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12371,7 +12531,7 @@
         <v>428465.6580224005</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12437,7 +12597,7 @@
         <v>428247.9628224005</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12503,7 +12663,7 @@
         <v>430918.1247224005</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12569,7 +12729,7 @@
         <v>429575.0017224005</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12602,7 +12762,7 @@
         <v>429199.6392224005</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12635,7 +12795,7 @@
         <v>423939.0027224005</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12668,7 +12828,7 @@
         <v>424033.7090224005</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12701,7 +12861,7 @@
         <v>421116.3090224005</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12734,7 +12894,7 @@
         <v>425737.7072859425</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12767,7 +12927,7 @@
         <v>425072.2229859424</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12800,7 +12960,7 @@
         <v>425701.7222859425</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12833,7 +12993,7 @@
         <v>424560.0782859425</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12866,7 +13026,7 @@
         <v>422006.6334517021</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12899,7 +13059,7 @@
         <v>420833.0759517021</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12932,7 +13092,7 @@
         <v>419521.0104517021</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12965,7 +13125,7 @@
         <v>419656.3974517021</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12998,7 +13158,7 @@
         <v>417973.6356517021</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13031,7 +13191,7 @@
         <v>417974.8755517021</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13064,7 +13224,7 @@
         <v>418474.7036517021</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13097,7 +13257,7 @@
         <v>421080.0997517021</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13130,7 +13290,7 @@
         <v>423089.4289910943</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13163,7 +13323,7 @@
         <v>422825.7115910943</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13196,7 +13356,7 @@
         <v>423212.1799175227</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13295,7 +13455,7 @@
         <v>421618.7090175227</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13394,7 +13554,7 @@
         <v>422271.8920650234</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13427,7 +13587,7 @@
         <v>422271.8920650234</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13460,7 +13620,7 @@
         <v>422285.1820650233</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13493,7 +13653,7 @@
         <v>420435.1720650233</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13526,7 +13686,7 @@
         <v>420187.4720650233</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13559,7 +13719,7 @@
         <v>420187.4720650233</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13724,7 +13884,7 @@
         <v>416614.0768650233</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13757,7 +13917,7 @@
         <v>417243.4500650233</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13790,7 +13950,7 @@
         <v>417243.4500650233</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13823,7 +13983,7 @@
         <v>417243.4500650233</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13856,7 +14016,7 @@
         <v>417505.1209650233</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13889,7 +14049,7 @@
         <v>417536.2564650233</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13922,7 +14082,7 @@
         <v>417542.2464423988</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13955,7 +14115,7 @@
         <v>417106.3105423988</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13988,7 +14148,7 @@
         <v>417106.3105423988</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14021,7 +14181,7 @@
         <v>417736.0679423988</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14054,7 +14214,7 @@
         <v>417514.0685423989</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14087,7 +14247,7 @@
         <v>420652.0491423989</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14120,7 +14280,7 @@
         <v>420652.0491423989</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14153,7 +14313,7 @@
         <v>420652.0491423989</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14186,7 +14346,7 @@
         <v>420342.4181423989</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14219,7 +14379,7 @@
         <v>420342.4181423989</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14252,7 +14412,7 @@
         <v>420342.4181423989</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14285,7 +14445,7 @@
         <v>420217.4181423989</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14318,7 +14478,7 @@
         <v>419924.9233423989</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14351,7 +14511,7 @@
         <v>419924.9233423989</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14384,7 +14544,7 @@
         <v>419395.4110423989</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14417,7 +14577,7 @@
         <v>418157.6597423989</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14450,7 +14610,7 @@
         <v>418937.7848423989</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14483,7 +14643,7 @@
         <v>421469.4077423989</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14516,7 +14676,7 @@
         <v>422367.6819423989</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14549,7 +14709,7 @@
         <v>422558.8671423989</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14582,7 +14742,7 @@
         <v>422558.8671423989</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14615,7 +14775,7 @@
         <v>421650.2025423989</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14648,7 +14808,7 @@
         <v>421639.6362423989</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14681,7 +14841,7 @@
         <v>421862.7626423989</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14714,7 +14874,7 @@
         <v>421862.7626423989</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14747,7 +14907,7 @@
         <v>422009.5357731021</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14780,7 +14940,7 @@
         <v>421438.7038731021</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14813,7 +14973,7 @@
         <v>421151.5125731021</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14846,7 +15006,7 @@
         <v>421180.2234731021</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14879,7 +15039,7 @@
         <v>420874.7463731021</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14912,7 +15072,7 @@
         <v>420857.2491731021</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14945,7 +15105,7 @@
         <v>420857.2491731021</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14978,7 +15138,7 @@
         <v>419399.2494731022</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15011,7 +15171,7 @@
         <v>419411.7817010814</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15044,7 +15204,7 @@
         <v>418767.8438010814</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15077,7 +15237,7 @@
         <v>419584.7898010814</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15110,7 +15270,7 @@
         <v>419316.6339010814</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15143,7 +15303,7 @@
         <v>419316.6339010814</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15242,7 +15402,7 @@
         <v>419600.9830010814</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15275,7 +15435,7 @@
         <v>419604.6361010814</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15341,7 +15501,7 @@
         <v>420511.5224010814</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15374,7 +15534,7 @@
         <v>420511.5224010814</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16859,7 +17019,7 @@
         <v>408424.9156754488</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16892,7 +17052,7 @@
         <v>408184.7946754488</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -20225,7 +20385,7 @@
         <v>555859.2935754489</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20258,7 +20418,7 @@
         <v>578044.571375449</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20291,7 +20451,7 @@
         <v>578044.571375449</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20885,7 +21045,7 @@
         <v>572312.034975449</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20918,7 +21078,7 @@
         <v>572310.034975449</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20951,7 +21111,7 @@
         <v>572310.034975449</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20984,7 +21144,7 @@
         <v>572308.034975449</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21017,7 +21177,7 @@
         <v>572306.034975449</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21050,7 +21210,7 @@
         <v>572303.034975449</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21083,7 +21243,7 @@
         <v>572315.706375449</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21116,7 +21276,7 @@
         <v>572453.819375449</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21149,7 +21309,7 @@
         <v>572455.809375449</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21182,7 +21342,7 @@
         <v>572778.338675449</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21215,7 +21375,7 @@
         <v>567172.525075449</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21248,7 +21408,7 @@
         <v>567172.525075449</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21281,7 +21441,7 @@
         <v>567172.525075449</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21314,7 +21474,7 @@
         <v>566887.3466754491</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21347,7 +21507,7 @@
         <v>566885.3466754491</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21380,7 +21540,7 @@
         <v>565957.2344754491</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21413,7 +21573,7 @@
         <v>561306.194675449</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21446,7 +21606,7 @@
         <v>561306.194675449</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21479,7 +21639,7 @@
         <v>556308.4067754491</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21512,7 +21672,7 @@
         <v>556464.586275449</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21545,7 +21705,7 @@
         <v>556149.586275449</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21578,7 +21738,7 @@
         <v>556149.586275449</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21611,7 +21771,7 @@
         <v>556094.690875449</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21644,7 +21804,7 @@
         <v>555988.147275449</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21677,7 +21837,7 @@
         <v>555688.147275449</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21710,7 +21870,7 @@
         <v>555688.147275449</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21776,7 +21936,7 @@
         <v>555877.591775449</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21809,7 +21969,7 @@
         <v>565364.629575449</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21842,7 +22002,7 @@
         <v>539433.031875449</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21875,7 +22035,7 @@
         <v>512278.111675449</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21908,7 +22068,7 @@
         <v>535267.595775449</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21941,7 +22101,7 @@
         <v>534183.7774754489</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21974,7 +22134,7 @@
         <v>525809.5674754489</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22106,7 +22266,7 @@
         <v>506058.887275449</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22139,7 +22299,7 @@
         <v>484402.059875449</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22172,7 +22332,7 @@
         <v>484402.059875449</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22205,7 +22365,7 @@
         <v>484402.059875449</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22238,7 +22398,7 @@
         <v>475581.461075449</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22271,7 +22431,7 @@
         <v>499513.849475449</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22304,7 +22464,7 @@
         <v>499513.849475449</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22337,7 +22497,7 @@
         <v>499513.849475449</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22370,7 +22530,7 @@
         <v>473368.308375449</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22403,7 +22563,7 @@
         <v>473368.308375449</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22436,7 +22596,7 @@
         <v>473368.308375449</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22469,7 +22629,7 @@
         <v>473368.308375449</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22502,7 +22662,7 @@
         <v>473370.611175449</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22535,7 +22695,7 @@
         <v>472770.611175449</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22568,7 +22728,7 @@
         <v>471557.142775449</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22634,7 +22794,7 @@
         <v>441001.266275449</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22667,7 +22827,7 @@
         <v>438085.650175449</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -24515,7 +24675,7 @@
         <v>366384.9121400742</v>
       </c>
       <c r="H698" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24581,7 +24741,7 @@
         <v>367455.9570400742</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24614,7 +24774,7 @@
         <v>367536.8166400742</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24647,7 +24807,7 @@
         <v>367536.8166400742</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24680,7 +24840,7 @@
         <v>367771.0368400742</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24713,7 +24873,7 @@
         <v>367720.0368400742</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24779,7 +24939,7 @@
         <v>366920.2092400742</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24845,7 +25005,7 @@
         <v>366908.4375400742</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24878,7 +25038,7 @@
         <v>366593.8390400742</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24977,7 +25137,7 @@
         <v>365749.2859400742</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25010,7 +25170,7 @@
         <v>365658.2297400742</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25043,7 +25203,7 @@
         <v>365637.5547400742</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25109,7 +25269,7 @@
         <v>364727.8597400742</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25142,7 +25302,7 @@
         <v>364727.8597400742</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25175,7 +25335,7 @@
         <v>363424.0055400742</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25208,7 +25368,7 @@
         <v>363424.0055400742</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25241,7 +25401,7 @@
         <v>363811.0055400742</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25274,7 +25434,7 @@
         <v>363488.8020400742</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25307,7 +25467,7 @@
         <v>372768.6317400742</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25340,7 +25500,7 @@
         <v>356868.3526400742</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25373,7 +25533,7 @@
         <v>356868.3526400742</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25406,7 +25566,7 @@
         <v>370072.0343400742</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25439,7 +25599,7 @@
         <v>370072.0343400742</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25472,7 +25632,7 @@
         <v>368605.3624400742</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25538,7 +25698,7 @@
         <v>393378.6367400743</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25571,7 +25731,7 @@
         <v>393378.6367400743</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25604,7 +25764,7 @@
         <v>370368.3689400742</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25637,7 +25797,7 @@
         <v>370368.3689400742</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25670,7 +25830,7 @@
         <v>393398.8175400742</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25703,7 +25863,7 @@
         <v>418367.4314400742</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25736,7 +25896,7 @@
         <v>395087.7918400742</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25769,7 +25929,7 @@
         <v>371124.6260400742</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25802,7 +25962,7 @@
         <v>393115.5416400742</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25835,7 +25995,7 @@
         <v>393115.5416400742</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25868,7 +26028,7 @@
         <v>416168.0048400742</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25901,7 +26061,7 @@
         <v>405140.9517400742</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25934,7 +26094,7 @@
         <v>428692.5647400742</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25967,7 +26127,7 @@
         <v>432760.1033400742</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -29168,7 +29328,7 @@
         <v>363572.1872846373</v>
       </c>
       <c r="H839" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -29201,7 +29361,7 @@
         <v>363571.8986846373</v>
       </c>
       <c r="H840" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -29234,7 +29394,7 @@
         <v>364118.8986846373</v>
       </c>
       <c r="H841" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -29311,6 +29471,6 @@
       <c r="M843" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-14 BackTest LINK.xlsx
+++ b/BackTest/2019-11-14 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2332,7 +2332,7 @@
         <v>184141.4171667326</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>247720.0432667326</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>310677.5751667325</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>278455.5870667325</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>310003.9060667325</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>341538.7807667325</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>341538.7807667325</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>363629.8419667325</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>333550.6430667325</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>333550.6430667325</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>334246.5303667325</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -4378,11 +4378,17 @@
         <v>331446.7164112842</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3280</v>
+      </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4417,17 @@
         <v>332811.5012112843</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3279</v>
+      </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4449,10 +4461,12 @@
       <c r="I123" t="n">
         <v>3287</v>
       </c>
-      <c r="J123" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4486,12 +4500,10 @@
       <c r="I124" t="n">
         <v>3283</v>
       </c>
-      <c r="J124" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L124" t="n">
@@ -4527,9 +4539,7 @@
       <c r="I125" t="n">
         <v>3283</v>
       </c>
-      <c r="J125" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4568,9 +4578,7 @@
       <c r="I126" t="n">
         <v>3278</v>
       </c>
-      <c r="J126" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4609,9 +4617,7 @@
       <c r="I127" t="n">
         <v>3289</v>
       </c>
-      <c r="J127" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4650,9 +4656,7 @@
       <c r="I128" t="n">
         <v>3290</v>
       </c>
-      <c r="J128" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4691,9 +4695,7 @@
       <c r="I129" t="n">
         <v>3295</v>
       </c>
-      <c r="J129" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4732,9 +4734,7 @@
       <c r="I130" t="n">
         <v>3299</v>
       </c>
-      <c r="J130" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4773,9 +4773,7 @@
       <c r="I131" t="n">
         <v>3301</v>
       </c>
-      <c r="J131" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4814,9 +4812,7 @@
       <c r="I132" t="n">
         <v>3304</v>
       </c>
-      <c r="J132" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4855,9 +4851,7 @@
       <c r="I133" t="n">
         <v>3307</v>
       </c>
-      <c r="J133" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4896,9 +4890,7 @@
       <c r="I134" t="n">
         <v>3318</v>
       </c>
-      <c r="J134" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4932,14 +4924,10 @@
         <v>334447.5478112843</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>3318</v>
-      </c>
-      <c r="J135" t="n">
-        <v>3287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4973,14 +4961,10 @@
         <v>337947.5478112843</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>3319</v>
-      </c>
-      <c r="J136" t="n">
-        <v>3287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5014,14 +4998,10 @@
         <v>337923.8393112843</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>3322</v>
-      </c>
-      <c r="J137" t="n">
-        <v>3287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5055,14 +5035,10 @@
         <v>337902.5478112843</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>3313</v>
-      </c>
-      <c r="J138" t="n">
-        <v>3287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5096,14 +5072,10 @@
         <v>337908.5478112843</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>3311</v>
-      </c>
-      <c r="J139" t="n">
-        <v>3287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5137,14 +5109,10 @@
         <v>337908.5478112843</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3313</v>
-      </c>
-      <c r="J140" t="n">
-        <v>3287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5178,14 +5146,10 @@
         <v>337906.9448112843</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>3313</v>
-      </c>
-      <c r="J141" t="n">
-        <v>3287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5219,14 +5183,10 @@
         <v>338058.2668112843</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>3312</v>
-      </c>
-      <c r="J142" t="n">
-        <v>3287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5263,9 +5223,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5302,9 +5260,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5341,9 +5297,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5380,9 +5334,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5419,9 +5371,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5458,9 +5408,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5497,9 +5445,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5536,9 +5482,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5575,9 +5519,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5614,9 +5556,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5653,9 +5593,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5692,9 +5630,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5731,9 +5667,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5770,9 +5704,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5809,9 +5741,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5848,9 +5778,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5887,9 +5815,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5926,9 +5852,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5965,9 +5889,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6004,9 +5926,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6043,9 +5963,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6082,9 +6000,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6121,9 +6037,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6160,9 +6074,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6196,20 +6108,16 @@
         <v>353154.1417228605</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>3287</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -6235,17 +6143,11 @@
         <v>353159.1417228605</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6274,17 +6176,11 @@
         <v>353159.1417228605</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6313,17 +6209,11 @@
         <v>353159.1417228605</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6352,17 +6242,11 @@
         <v>353811.2370228604</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6391,17 +6275,11 @@
         <v>354860.9551228604</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6430,17 +6308,11 @@
         <v>358979.0887228604</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6469,17 +6341,11 @@
         <v>365979.8967228605</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6508,17 +6374,11 @@
         <v>366383.9700228604</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6547,17 +6407,11 @@
         <v>366235.9071228604</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6586,17 +6440,11 @@
         <v>364846.3058228604</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6625,17 +6473,11 @@
         <v>364875.1558228604</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6664,17 +6506,11 @@
         <v>364875.1558228604</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6703,17 +6539,11 @@
         <v>364875.1558228604</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6742,17 +6572,11 @@
         <v>367407.8304228605</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6781,17 +6605,11 @@
         <v>362606.4479228604</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6820,17 +6638,11 @@
         <v>364944.4740228605</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6859,17 +6671,11 @@
         <v>366441.3848228605</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6898,17 +6704,11 @@
         <v>368756.0357228605</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6937,17 +6737,11 @@
         <v>367575.9190228605</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6976,17 +6770,11 @@
         <v>365491.1055228605</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7015,17 +6803,11 @@
         <v>365342.6991088961</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7054,17 +6836,11 @@
         <v>365448.6902088961</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7093,17 +6869,11 @@
         <v>364264.9486088961</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7132,17 +6902,11 @@
         <v>362371.2196088961</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7171,17 +6935,11 @@
         <v>364069.3041088961</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7210,17 +6968,11 @@
         <v>363658.7788743891</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7249,17 +7001,11 @@
         <v>363659.7788743891</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7288,17 +7034,11 @@
         <v>363902.8541085811</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7327,17 +7067,11 @@
         <v>360077.5136085811</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7366,17 +7100,11 @@
         <v>361411.7574085811</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7405,17 +7133,11 @@
         <v>364348.2663113304</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7444,17 +7166,11 @@
         <v>364348.2663113304</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7483,17 +7199,11 @@
         <v>362685.7280113304</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7522,17 +7232,11 @@
         <v>361385.7280113304</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7561,17 +7265,11 @@
         <v>361385.7280113304</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7600,17 +7298,11 @@
         <v>361385.7280113304</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7639,17 +7331,11 @@
         <v>361385.7280113304</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7678,17 +7364,11 @@
         <v>361385.7280113304</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7717,17 +7397,11 @@
         <v>361801.8139113304</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7756,17 +7430,11 @@
         <v>362478.1011113304</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7795,17 +7463,11 @@
         <v>362478.1011113304</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7834,17 +7496,11 @@
         <v>362478.1011113304</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7873,17 +7529,11 @@
         <v>362595.5847113304</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7912,17 +7562,11 @@
         <v>365819.0893113304</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7951,17 +7595,11 @@
         <v>365819.0893113304</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7990,17 +7628,11 @@
         <v>365819.0893113304</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8029,17 +7661,11 @@
         <v>365819.0893113304</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8068,17 +7694,11 @@
         <v>361819.9228113304</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8107,17 +7727,11 @@
         <v>361819.9228113304</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8146,17 +7760,11 @@
         <v>361819.9228113304</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8185,17 +7793,11 @@
         <v>359876.2263113304</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8224,17 +7826,11 @@
         <v>358776.2263113304</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8263,17 +7859,11 @@
         <v>363577.2263113304</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8302,17 +7892,11 @@
         <v>362943.6146113304</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8341,17 +7925,11 @@
         <v>363966.7311113304</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8380,17 +7958,11 @@
         <v>363966.7311113304</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8419,17 +7991,11 @@
         <v>363966.7311113304</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8458,17 +8024,11 @@
         <v>363966.7311113304</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8497,17 +8057,11 @@
         <v>363919.1848113304</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8539,14 +8093,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8578,14 +8126,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8617,14 +8159,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8656,14 +8192,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8695,14 +8225,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8734,14 +8258,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8773,14 +8291,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8812,14 +8324,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8851,14 +8357,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8890,14 +8390,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8929,14 +8423,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8968,14 +8456,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9007,14 +8489,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9046,14 +8522,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9085,14 +8555,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9124,14 +8588,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9163,14 +8621,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9202,14 +8654,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9241,14 +8687,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9280,14 +8720,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9319,14 +8753,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9355,17 +8783,11 @@
         <v>358281.3762113304</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9397,14 +8819,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9436,14 +8852,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9475,14 +8885,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9514,14 +8918,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9553,14 +8951,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9592,14 +8984,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9631,14 +9017,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9670,14 +9050,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9709,14 +9083,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9748,14 +9116,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9787,14 +9149,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9826,14 +9182,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9865,14 +9215,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9904,14 +9248,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9943,14 +9281,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9982,14 +9314,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10021,14 +9347,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10060,14 +9380,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10099,14 +9413,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10138,14 +9446,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10177,14 +9479,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10216,14 +9512,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10255,14 +9545,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10294,14 +9578,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10333,14 +9611,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10372,14 +9644,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10411,14 +9677,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10450,14 +9710,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10489,14 +9743,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10528,14 +9776,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10564,17 +9806,11 @@
         <v>361836.2707256404</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10603,17 +9839,11 @@
         <v>361342.0722256404</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10645,14 +9875,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10684,14 +9908,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10723,14 +9941,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10762,14 +9974,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10801,14 +10007,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10840,14 +10040,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10879,14 +10073,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10918,14 +10106,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10957,14 +10139,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10993,17 +10169,11 @@
         <v>379336.6131823451</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11032,17 +10202,11 @@
         <v>382821.024682345</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11071,17 +10235,11 @@
         <v>382081.306282345</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11110,17 +10268,11 @@
         <v>386041.3618823451</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11149,17 +10301,11 @@
         <v>386041.3618823451</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11188,17 +10334,11 @@
         <v>386041.3618823451</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11227,17 +10367,11 @@
         <v>390809.6843967477</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11266,17 +10400,11 @@
         <v>397368.0986475828</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11305,17 +10433,11 @@
         <v>401458.1556475827</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11344,17 +10466,11 @@
         <v>413309.0173340871</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11383,17 +10499,11 @@
         <v>422967.3899988598</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11422,17 +10532,11 @@
         <v>422967.3899988598</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11461,17 +10565,11 @@
         <v>420203.8188988598</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11503,14 +10601,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11539,17 +10631,11 @@
         <v>411867.6691591925</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11578,17 +10664,11 @@
         <v>410301.7002045218</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11620,14 +10700,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11659,14 +10733,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11698,14 +10766,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11737,14 +10799,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11776,14 +10832,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11815,14 +10865,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11854,14 +10898,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11893,14 +10931,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11932,14 +10964,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11971,14 +10997,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12010,14 +11030,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12049,14 +11063,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12088,14 +11096,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12127,14 +11129,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12166,14 +11162,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12205,14 +11195,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12244,14 +11228,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12280,17 +11258,11 @@
         <v>419621.573443667</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12319,17 +11291,11 @@
         <v>426114.365643667</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12358,23 +11324,15 @@
         <v>434758.7275075255</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>3287</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
-        <v>1.088398235473076</v>
-      </c>
-      <c r="M325" t="n">
-        <v>1.014674411494956</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12399,7 +11357,7 @@
         <v>431464.7259224005</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12432,7 +11390,7 @@
         <v>428692.8902224005</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12465,7 +11423,7 @@
         <v>429340.3982224005</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12498,7 +11456,7 @@
         <v>430606.3319224005</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12531,7 +11489,7 @@
         <v>428465.6580224005</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12597,7 +11555,7 @@
         <v>428247.9628224005</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12663,7 +11621,7 @@
         <v>430918.1247224005</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12729,7 +11687,7 @@
         <v>429575.0017224005</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12762,7 +11720,7 @@
         <v>429199.6392224005</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12795,7 +11753,7 @@
         <v>423939.0027224005</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12828,7 +11786,7 @@
         <v>424033.7090224005</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12861,7 +11819,7 @@
         <v>421116.3090224005</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12894,7 +11852,7 @@
         <v>425737.7072859425</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12927,7 +11885,7 @@
         <v>425072.2229859424</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12960,7 +11918,7 @@
         <v>425701.7222859425</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12993,7 +11951,7 @@
         <v>424560.0782859425</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13026,7 +11984,7 @@
         <v>422006.6334517021</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13059,7 +12017,7 @@
         <v>420833.0759517021</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13092,7 +12050,7 @@
         <v>419521.0104517021</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13125,7 +12083,7 @@
         <v>419656.3974517021</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13158,7 +12116,7 @@
         <v>417973.6356517021</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13191,7 +12149,7 @@
         <v>417974.8755517021</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13224,7 +12182,7 @@
         <v>418474.7036517021</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13257,7 +12215,7 @@
         <v>421080.0997517021</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13290,7 +12248,7 @@
         <v>423089.4289910943</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13323,7 +12281,7 @@
         <v>422825.7115910943</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13356,7 +12314,7 @@
         <v>423212.1799175227</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13653,7 +12611,7 @@
         <v>420435.1720650233</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13686,7 +12644,7 @@
         <v>420187.4720650233</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13719,7 +12677,7 @@
         <v>420187.4720650233</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13884,7 +12842,7 @@
         <v>416614.0768650233</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13917,7 +12875,7 @@
         <v>417243.4500650233</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13950,7 +12908,7 @@
         <v>417243.4500650233</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13983,7 +12941,7 @@
         <v>417243.4500650233</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14016,7 +12974,7 @@
         <v>417505.1209650233</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14049,7 +13007,7 @@
         <v>417536.2564650233</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14082,7 +13040,7 @@
         <v>417542.2464423988</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14115,7 +13073,7 @@
         <v>417106.3105423988</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14148,7 +13106,7 @@
         <v>417106.3105423988</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14181,7 +13139,7 @@
         <v>417736.0679423988</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14214,7 +13172,7 @@
         <v>417514.0685423989</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14247,7 +13205,7 @@
         <v>420652.0491423989</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14280,7 +13238,7 @@
         <v>420652.0491423989</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14313,7 +13271,7 @@
         <v>420652.0491423989</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14346,7 +13304,7 @@
         <v>420342.4181423989</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14379,7 +13337,7 @@
         <v>420342.4181423989</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14412,7 +13370,7 @@
         <v>420342.4181423989</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14445,7 +13403,7 @@
         <v>420217.4181423989</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14478,7 +13436,7 @@
         <v>419924.9233423989</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14511,7 +13469,7 @@
         <v>419924.9233423989</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14544,7 +13502,7 @@
         <v>419395.4110423989</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14577,7 +13535,7 @@
         <v>418157.6597423989</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14610,7 +13568,7 @@
         <v>418937.7848423989</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14643,7 +13601,7 @@
         <v>421469.4077423989</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14676,7 +13634,7 @@
         <v>422367.6819423989</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14709,7 +13667,7 @@
         <v>422558.8671423989</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14742,7 +13700,7 @@
         <v>422558.8671423989</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14775,7 +13733,7 @@
         <v>421650.2025423989</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14808,7 +13766,7 @@
         <v>421639.6362423989</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14841,7 +13799,7 @@
         <v>421862.7626423989</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14874,7 +13832,7 @@
         <v>421862.7626423989</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14907,7 +13865,7 @@
         <v>422009.5357731021</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14940,7 +13898,7 @@
         <v>421438.7038731021</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14973,7 +13931,7 @@
         <v>421151.5125731021</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15006,7 +13964,7 @@
         <v>421180.2234731021</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15039,7 +13997,7 @@
         <v>420874.7463731021</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15072,7 +14030,7 @@
         <v>420857.2491731021</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15105,7 +14063,7 @@
         <v>420857.2491731021</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15204,7 +14162,7 @@
         <v>418767.8438010814</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15237,7 +14195,7 @@
         <v>419584.7898010814</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15270,7 +14228,7 @@
         <v>419316.6339010814</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15303,7 +14261,7 @@
         <v>419316.6339010814</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -20385,7 +19343,7 @@
         <v>555859.2935754489</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20418,7 +19376,7 @@
         <v>578044.571375449</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20451,7 +19409,7 @@
         <v>578044.571375449</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21342,7 +20300,7 @@
         <v>572778.338675449</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21375,7 +20333,7 @@
         <v>567172.525075449</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21408,7 +20366,7 @@
         <v>567172.525075449</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21441,7 +20399,7 @@
         <v>567172.525075449</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21474,7 +20432,7 @@
         <v>566887.3466754491</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21507,7 +20465,7 @@
         <v>566885.3466754491</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21540,7 +20498,7 @@
         <v>565957.2344754491</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21573,7 +20531,7 @@
         <v>561306.194675449</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21606,7 +20564,7 @@
         <v>561306.194675449</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21639,7 +20597,7 @@
         <v>556308.4067754491</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21672,7 +20630,7 @@
         <v>556464.586275449</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21705,7 +20663,7 @@
         <v>556149.586275449</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21738,7 +20696,7 @@
         <v>556149.586275449</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21771,7 +20729,7 @@
         <v>556094.690875449</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21804,7 +20762,7 @@
         <v>555988.147275449</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21837,7 +20795,7 @@
         <v>555688.147275449</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21870,7 +20828,7 @@
         <v>555688.147275449</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21936,7 +20894,7 @@
         <v>555877.591775449</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21969,7 +20927,7 @@
         <v>565364.629575449</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22002,7 +20960,7 @@
         <v>539433.031875449</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22035,7 +20993,7 @@
         <v>512278.111675449</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22068,7 +21026,7 @@
         <v>535267.595775449</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22101,7 +21059,7 @@
         <v>534183.7774754489</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22134,7 +21092,7 @@
         <v>525809.5674754489</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22266,7 +21224,7 @@
         <v>506058.887275449</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22299,7 +21257,7 @@
         <v>484402.059875449</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22332,7 +21290,7 @@
         <v>484402.059875449</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22365,7 +21323,7 @@
         <v>484402.059875449</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22398,7 +21356,7 @@
         <v>475581.461075449</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22431,7 +21389,7 @@
         <v>499513.849475449</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22464,7 +21422,7 @@
         <v>499513.849475449</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22497,7 +21455,7 @@
         <v>499513.849475449</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22530,7 +21488,7 @@
         <v>473368.308375449</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22563,7 +21521,7 @@
         <v>473368.308375449</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22596,7 +21554,7 @@
         <v>473368.308375449</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22629,7 +21587,7 @@
         <v>473368.308375449</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22662,7 +21620,7 @@
         <v>473370.611175449</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22695,7 +21653,7 @@
         <v>472770.611175449</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22728,7 +21686,7 @@
         <v>471557.142775449</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22794,7 +21752,7 @@
         <v>441001.266275449</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22827,7 +21785,7 @@
         <v>438085.650175449</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -24015,7 +22973,7 @@
         <v>363005.7057491651</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24873,7 +23831,7 @@
         <v>367720.0368400742</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25005,7 +23963,7 @@
         <v>366908.4375400742</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25038,7 +23996,7 @@
         <v>366593.8390400742</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25137,7 +24095,7 @@
         <v>365749.2859400742</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25170,7 +24128,7 @@
         <v>365658.2297400742</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25203,7 +24161,7 @@
         <v>365637.5547400742</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25269,7 +24227,7 @@
         <v>364727.8597400742</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25302,7 +24260,7 @@
         <v>364727.8597400742</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25335,7 +24293,7 @@
         <v>363424.0055400742</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25368,7 +24326,7 @@
         <v>363424.0055400742</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25401,7 +24359,7 @@
         <v>363811.0055400742</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25434,7 +24392,7 @@
         <v>363488.8020400742</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25467,7 +24425,7 @@
         <v>372768.6317400742</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25500,7 +24458,7 @@
         <v>356868.3526400742</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25533,7 +24491,7 @@
         <v>356868.3526400742</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25566,7 +24524,7 @@
         <v>370072.0343400742</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25599,7 +24557,7 @@
         <v>370072.0343400742</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25632,7 +24590,7 @@
         <v>368605.3624400742</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25698,7 +24656,7 @@
         <v>393378.6367400743</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25731,7 +24689,7 @@
         <v>393378.6367400743</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25764,7 +24722,7 @@
         <v>370368.3689400742</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25797,7 +24755,7 @@
         <v>370368.3689400742</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25830,7 +24788,7 @@
         <v>393398.8175400742</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25863,7 +24821,7 @@
         <v>418367.4314400742</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25896,7 +24854,7 @@
         <v>395087.7918400742</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25929,7 +24887,7 @@
         <v>371124.6260400742</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25962,7 +24920,7 @@
         <v>393115.5416400742</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25995,7 +24953,7 @@
         <v>393115.5416400742</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26028,7 +24986,7 @@
         <v>416168.0048400742</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26061,7 +25019,7 @@
         <v>405140.9517400742</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26094,7 +25052,7 @@
         <v>428692.5647400742</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26127,7 +25085,7 @@
         <v>432760.1033400742</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -29471,6 +28429,6 @@
       <c r="M843" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-14 BackTest LINK.xlsx
+++ b/BackTest/2019-11-14 BackTest LINK.xlsx
@@ -550,10 +550,14 @@
         <v>95558.58296673256</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3275</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3275</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -583,11 +587,19 @@
         <v>125569.3658667326</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3275</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +628,19 @@
         <v>96287.35746673256</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3277</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +669,19 @@
         <v>96287.35746673256</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3276</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +710,19 @@
         <v>96287.35746673256</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3276</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +754,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +793,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +829,19 @@
         <v>69059.70566673257</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3276</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +873,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +912,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +951,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +990,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1029,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1068,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1104,19 @@
         <v>126440.7809667326</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3277</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1145,19 @@
         <v>126440.7809667326</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3277</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1189,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1225,19 @@
         <v>126440.7809667326</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3277</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1266,19 @@
         <v>126440.7809667326</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3277</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1307,19 @@
         <v>106658.3846667326</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3277</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1348,19 @@
         <v>139218.1985667326</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3274</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1389,19 @@
         <v>109722.9903667326</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3275</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1430,19 @@
         <v>137066.5475667326</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3273</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1471,19 @@
         <v>137066.5475667326</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3274</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1512,19 @@
         <v>121304.6237667326</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3274</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1553,19 @@
         <v>121304.6237667326</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3273</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1594,19 @@
         <v>155015.3119667326</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3273</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1638,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1674,19 @@
         <v>178961.0576667326</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3289</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1715,19 @@
         <v>166224.2336667326</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3290</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1759,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1798,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1837,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1876,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1915,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1954,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1993,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2032,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2071,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2110,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2149,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2185,19 @@
         <v>182581.3153667326</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3284</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2229,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2268,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2307,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2343,19 @@
         <v>214588.6547667326</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3292</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2387,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2423,19 @@
         <v>183145.7145667326</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3292</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2464,19 @@
         <v>183145.7145667326</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3291</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2505,19 @@
         <v>183145.7145667326</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3291</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2546,19 @@
         <v>183145.7145667326</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3291</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2587,19 @@
         <v>214431.6669667326</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3291</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2628,19 @@
         <v>185307.9340667326</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3292</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2669,19 @@
         <v>216421.7850667326</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3291</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2710,19 @@
         <v>184141.4171667326</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3294</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2751,19 @@
         <v>215888.1657667326</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3292</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2792,19 @@
         <v>247720.0432667326</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3293</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2833,19 @@
         <v>279218.1132667325</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3294</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2874,19 @@
         <v>310677.5751667325</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3295</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2915,19 @@
         <v>278455.5870667325</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3298</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2956,19 @@
         <v>310003.9060667325</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3297</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2997,19 @@
         <v>341538.7807667325</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3298</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +3038,19 @@
         <v>341538.7807667325</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3299</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +3079,17 @@
         <v>363629.8419667325</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +3118,19 @@
         <v>333550.6430667325</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3303</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +3159,19 @@
         <v>333550.6430667325</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3301</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +3200,19 @@
         <v>334246.5303667325</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3301</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +3241,19 @@
         <v>334246.5303667325</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3303</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3282,19 @@
         <v>334246.5303667325</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3303</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3323,19 @@
         <v>333896.1756667325</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3303</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3364,19 @@
         <v>333246.8813667325</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3300</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3405,19 @@
         <v>333614.4676667325</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3290</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3446,19 @@
         <v>333614.4676667325</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3300</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3487,19 @@
         <v>333614.4676667325</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3300</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3528,19 @@
         <v>333614.4676667325</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3300</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3569,19 @@
         <v>333720.4176667325</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3300</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3610,19 @@
         <v>333720.4176667325</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3304</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3654,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3690,19 @@
         <v>334140.8150667325</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3307</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3731,19 @@
         <v>334442.6562982447</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3308</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3772,19 @@
         <v>334235.7233982447</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3313</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3813,19 @@
         <v>333930.7164982447</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3308</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3854,19 @@
         <v>333945.8301112843</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3301</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3895,19 @@
         <v>333508.3360112843</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3313</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3936,19 @@
         <v>333478.3360112843</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3307</v>
+      </c>
+      <c r="J89" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3977,19 @@
         <v>333478.3360112843</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3301</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +4018,19 @@
         <v>334338.7360112843</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3301</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +4059,19 @@
         <v>334509.7105112843</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3307</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +4100,19 @@
         <v>334642.0639112843</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3312</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +4144,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +4180,19 @@
         <v>334707.9005936674</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3313</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4224,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4263,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4302,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4341,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4380,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4419,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4458,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4497,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4536,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4575,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4614,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4653,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4692,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4731,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4770,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4806,19 @@
         <v>332785.7465112843</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3301</v>
+      </c>
+      <c r="J111" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4850,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4889,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4925,19 @@
         <v>332501.1327112843</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3290</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4966,19 @@
         <v>332501.1327112843</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3290</v>
+      </c>
+      <c r="J115" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +5007,19 @@
         <v>332483.1827112843</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3290</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +5048,19 @@
         <v>332483.1827112843</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3289</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +5089,19 @@
         <v>332471.1827112843</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3289</v>
+      </c>
+      <c r="J118" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +5130,19 @@
         <v>332152.8335112843</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3283</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +5171,19 @@
         <v>332226.6874112842</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3276</v>
+      </c>
+      <c r="J120" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4383,10 +5217,12 @@
       <c r="I121" t="n">
         <v>3280</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>3275</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -4422,7 +5258,9 @@
       <c r="I122" t="n">
         <v>3279</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>3275</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4461,7 +5299,9 @@
       <c r="I123" t="n">
         <v>3287</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>3275</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4500,7 +5340,9 @@
       <c r="I124" t="n">
         <v>3283</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>3275</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4539,7 +5381,9 @@
       <c r="I125" t="n">
         <v>3283</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>3275</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4578,7 +5422,9 @@
       <c r="I126" t="n">
         <v>3278</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>3275</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4617,7 +5463,9 @@
       <c r="I127" t="n">
         <v>3289</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>3275</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4656,7 +5504,9 @@
       <c r="I128" t="n">
         <v>3290</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>3275</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4695,7 +5545,9 @@
       <c r="I129" t="n">
         <v>3295</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>3275</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4734,7 +5586,9 @@
       <c r="I130" t="n">
         <v>3299</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>3275</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4773,7 +5627,9 @@
       <c r="I131" t="n">
         <v>3301</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>3275</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4812,7 +5668,9 @@
       <c r="I132" t="n">
         <v>3304</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>3275</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4851,7 +5709,9 @@
       <c r="I133" t="n">
         <v>3307</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>3275</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4890,7 +5750,9 @@
       <c r="I134" t="n">
         <v>3318</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>3275</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4924,10 +5786,14 @@
         <v>334447.5478112843</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>3318</v>
+      </c>
+      <c r="J135" t="n">
+        <v>3275</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4961,10 +5827,14 @@
         <v>337947.5478112843</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>3319</v>
+      </c>
+      <c r="J136" t="n">
+        <v>3275</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4998,10 +5868,14 @@
         <v>337923.8393112843</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>3322</v>
+      </c>
+      <c r="J137" t="n">
+        <v>3275</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5035,10 +5909,14 @@
         <v>337902.5478112843</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>3313</v>
+      </c>
+      <c r="J138" t="n">
+        <v>3275</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5072,10 +5950,14 @@
         <v>337908.5478112843</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>3311</v>
+      </c>
+      <c r="J139" t="n">
+        <v>3275</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5109,10 +5991,14 @@
         <v>337908.5478112843</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>3313</v>
+      </c>
+      <c r="J140" t="n">
+        <v>3275</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5146,10 +6032,14 @@
         <v>337906.9448112843</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>3313</v>
+      </c>
+      <c r="J141" t="n">
+        <v>3275</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5183,10 +6073,14 @@
         <v>338058.2668112843</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>3312</v>
+      </c>
+      <c r="J142" t="n">
+        <v>3275</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5220,10 +6114,14 @@
         <v>338058.2668112843</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>3320</v>
+      </c>
+      <c r="J143" t="n">
+        <v>3275</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5257,10 +6155,14 @@
         <v>338058.2668112843</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>3320</v>
+      </c>
+      <c r="J144" t="n">
+        <v>3275</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5294,10 +6196,14 @@
         <v>338058.2668112843</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3320</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3275</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5331,10 +6237,14 @@
         <v>338261.8675112843</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>3320</v>
+      </c>
+      <c r="J146" t="n">
+        <v>3275</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5368,10 +6278,14 @@
         <v>338261.8675112843</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>3321</v>
+      </c>
+      <c r="J147" t="n">
+        <v>3275</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5405,10 +6319,14 @@
         <v>338927.1852112843</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>3321</v>
+      </c>
+      <c r="J148" t="n">
+        <v>3275</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5442,10 +6360,14 @@
         <v>338927.1852112843</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>3323</v>
+      </c>
+      <c r="J149" t="n">
+        <v>3275</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5479,10 +6401,14 @@
         <v>339497.2073112843</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>3323</v>
+      </c>
+      <c r="J150" t="n">
+        <v>3275</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5516,10 +6442,14 @@
         <v>339271.3073112843</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>3325</v>
+      </c>
+      <c r="J151" t="n">
+        <v>3275</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5553,10 +6483,14 @@
         <v>339271.3073112843</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>3322</v>
+      </c>
+      <c r="J152" t="n">
+        <v>3275</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5590,10 +6524,14 @@
         <v>337411.6918112843</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>3322</v>
+      </c>
+      <c r="J153" t="n">
+        <v>3275</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5627,10 +6565,14 @@
         <v>337411.6918112843</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3320</v>
+      </c>
+      <c r="J154" t="n">
+        <v>3275</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5664,10 +6606,14 @@
         <v>336756.1918112843</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>3320</v>
+      </c>
+      <c r="J155" t="n">
+        <v>3275</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5701,10 +6647,14 @@
         <v>341086.3418112843</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>3319</v>
+      </c>
+      <c r="J156" t="n">
+        <v>3275</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5738,10 +6688,14 @@
         <v>342085.2655112843</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>3320</v>
+      </c>
+      <c r="J157" t="n">
+        <v>3275</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5775,10 +6729,14 @@
         <v>351517.2083112843</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>3325</v>
+      </c>
+      <c r="J158" t="n">
+        <v>3275</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5812,10 +6770,14 @@
         <v>351105.0445112843</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>3357</v>
+      </c>
+      <c r="J159" t="n">
+        <v>3275</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5849,10 +6811,14 @@
         <v>351523.7445112843</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>3350</v>
+      </c>
+      <c r="J160" t="n">
+        <v>3275</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5886,10 +6852,14 @@
         <v>351523.7445112843</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>3356</v>
+      </c>
+      <c r="J161" t="n">
+        <v>3275</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5923,10 +6893,14 @@
         <v>351887.8445112843</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>3356</v>
+      </c>
+      <c r="J162" t="n">
+        <v>3275</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5960,10 +6934,14 @@
         <v>351865.8445112843</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>3357</v>
+      </c>
+      <c r="J163" t="n">
+        <v>3275</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5997,10 +6975,14 @@
         <v>354476.8445112843</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>3350</v>
+      </c>
+      <c r="J164" t="n">
+        <v>3275</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6037,7 +7019,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>3275</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6074,7 +7058,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>3275</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6108,16 +7094,20 @@
         <v>353154.1417228605</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>3275</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
       <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -6143,11 +7133,17 @@
         <v>353159.1417228605</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6176,11 +7172,17 @@
         <v>353159.1417228605</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6209,11 +7211,17 @@
         <v>353159.1417228605</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6242,11 +7250,17 @@
         <v>353811.2370228604</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6275,11 +7289,17 @@
         <v>354860.9551228604</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6308,11 +7328,17 @@
         <v>358979.0887228604</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6341,11 +7367,17 @@
         <v>365979.8967228605</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6374,11 +7406,17 @@
         <v>366383.9700228604</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6407,11 +7445,17 @@
         <v>366235.9071228604</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6440,11 +7484,17 @@
         <v>364846.3058228604</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6473,11 +7523,17 @@
         <v>364875.1558228604</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6506,11 +7562,17 @@
         <v>364875.1558228604</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6539,11 +7601,17 @@
         <v>364875.1558228604</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6572,11 +7640,17 @@
         <v>367407.8304228605</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6605,11 +7679,17 @@
         <v>362606.4479228604</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6638,11 +7718,17 @@
         <v>364944.4740228605</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6671,11 +7757,17 @@
         <v>366441.3848228605</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6704,11 +7796,17 @@
         <v>368756.0357228605</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6737,11 +7835,17 @@
         <v>367575.9190228605</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6770,11 +7874,17 @@
         <v>365491.1055228605</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6803,11 +7913,17 @@
         <v>365342.6991088961</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6836,11 +7952,17 @@
         <v>365448.6902088961</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6869,11 +7991,17 @@
         <v>364264.9486088961</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6902,11 +8030,17 @@
         <v>362371.2196088961</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6935,11 +8069,17 @@
         <v>364069.3041088961</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6968,11 +8108,17 @@
         <v>363658.7788743891</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7001,11 +8147,17 @@
         <v>363659.7788743891</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7034,11 +8186,17 @@
         <v>363902.8541085811</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7067,11 +8225,17 @@
         <v>360077.5136085811</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7100,11 +8264,17 @@
         <v>361411.7574085811</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7133,11 +8303,17 @@
         <v>364348.2663113304</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7166,11 +8342,17 @@
         <v>364348.2663113304</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7199,11 +8381,17 @@
         <v>362685.7280113304</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7232,11 +8420,17 @@
         <v>361385.7280113304</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7265,11 +8459,17 @@
         <v>361385.7280113304</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7298,11 +8498,17 @@
         <v>361385.7280113304</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7331,11 +8537,17 @@
         <v>361385.7280113304</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7364,11 +8576,17 @@
         <v>361385.7280113304</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7397,11 +8615,17 @@
         <v>361801.8139113304</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7430,11 +8654,17 @@
         <v>362478.1011113304</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7463,11 +8693,17 @@
         <v>362478.1011113304</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7496,11 +8732,17 @@
         <v>362478.1011113304</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7529,11 +8771,17 @@
         <v>362595.5847113304</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7562,11 +8810,17 @@
         <v>365819.0893113304</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7595,11 +8849,17 @@
         <v>365819.0893113304</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7628,11 +8888,17 @@
         <v>365819.0893113304</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7661,11 +8927,17 @@
         <v>365819.0893113304</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7694,11 +8966,17 @@
         <v>361819.9228113304</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7727,11 +9005,17 @@
         <v>361819.9228113304</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7760,11 +9044,17 @@
         <v>361819.9228113304</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7793,11 +9083,17 @@
         <v>359876.2263113304</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7826,11 +9122,17 @@
         <v>358776.2263113304</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7859,11 +9161,17 @@
         <v>363577.2263113304</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7892,11 +9200,17 @@
         <v>362943.6146113304</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7925,11 +9239,17 @@
         <v>363966.7311113304</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7958,11 +9278,17 @@
         <v>363966.7311113304</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7991,11 +9317,17 @@
         <v>363966.7311113304</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8024,11 +9356,17 @@
         <v>363966.7311113304</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8057,11 +9395,17 @@
         <v>363919.1848113304</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8093,8 +9437,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8126,8 +9476,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8159,8 +9515,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8192,8 +9554,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8225,8 +9593,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8258,8 +9632,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8291,8 +9671,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8324,8 +9710,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8357,8 +9749,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8390,8 +9788,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8423,8 +9827,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8456,8 +9866,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8489,8 +9905,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8522,8 +9944,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8555,8 +9983,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8588,8 +10022,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8621,8 +10061,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8654,8 +10100,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8687,8 +10139,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8720,8 +10178,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8753,8 +10217,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8783,11 +10253,17 @@
         <v>358281.3762113304</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8819,8 +10295,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8852,8 +10334,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8885,8 +10373,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8918,8 +10412,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8951,8 +10451,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8984,8 +10490,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9017,8 +10529,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9050,8 +10568,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9083,8 +10607,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9116,8 +10646,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9149,8 +10685,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9182,8 +10724,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9215,8 +10763,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9248,8 +10802,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9281,8 +10841,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9314,8 +10880,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9347,8 +10919,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9380,8 +10958,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9413,8 +10997,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9446,8 +11036,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9479,8 +11075,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9512,8 +11114,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9545,8 +11153,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9578,8 +11192,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9611,8 +11231,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9644,8 +11270,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9677,8 +11309,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9710,8 +11348,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9743,8 +11387,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9776,8 +11426,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9806,11 +11462,17 @@
         <v>361836.2707256404</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9839,11 +11501,17 @@
         <v>361342.0722256404</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9875,8 +11543,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9908,8 +11582,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9941,8 +11621,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9974,8 +11660,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10007,8 +11699,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10040,8 +11738,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10073,8 +11777,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10106,8 +11816,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10139,8 +11855,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10169,11 +11891,17 @@
         <v>379336.6131823451</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10202,11 +11930,17 @@
         <v>382821.024682345</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10235,11 +11969,17 @@
         <v>382081.306282345</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10268,11 +12008,17 @@
         <v>386041.3618823451</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10301,11 +12047,17 @@
         <v>386041.3618823451</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10334,11 +12086,17 @@
         <v>386041.3618823451</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10367,11 +12125,17 @@
         <v>390809.6843967477</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10400,11 +12164,17 @@
         <v>397368.0986475828</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10433,11 +12203,17 @@
         <v>401458.1556475827</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10466,11 +12242,17 @@
         <v>413309.0173340871</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10499,11 +12281,17 @@
         <v>422967.3899988598</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10532,11 +12320,17 @@
         <v>422967.3899988598</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10565,11 +12359,17 @@
         <v>420203.8188988598</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10601,8 +12401,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10631,11 +12437,17 @@
         <v>411867.6691591925</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10664,11 +12476,17 @@
         <v>410301.7002045218</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10700,8 +12518,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10733,8 +12557,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10766,8 +12596,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10799,8 +12635,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10832,8 +12674,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10865,8 +12713,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10898,8 +12752,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10931,8 +12791,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10964,8 +12830,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10997,8 +12869,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11030,8 +12908,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11063,8 +12947,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11096,8 +12986,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11129,8 +13025,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11162,8 +13064,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11195,8 +13103,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11228,8 +13142,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11258,11 +13178,17 @@
         <v>419621.573443667</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11291,11 +13217,17 @@
         <v>426114.365643667</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11327,8 +13259,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11357,15 +13295,23 @@
         <v>431464.7259224005</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+        <v>1.089351145038168</v>
+      </c>
+      <c r="M326" t="n">
+        <v>1.001528117359413</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11390,7 +13336,7 @@
         <v>428692.8902224005</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11423,7 +13369,7 @@
         <v>429340.3982224005</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11456,7 +13402,7 @@
         <v>430606.3319224005</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11489,7 +13435,7 @@
         <v>428465.6580224005</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11522,7 +13468,7 @@
         <v>428682.3342224005</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11555,7 +13501,7 @@
         <v>428247.9628224005</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11588,7 +13534,7 @@
         <v>431691.3031224005</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11621,7 +13567,7 @@
         <v>430918.1247224005</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11654,7 +13600,7 @@
         <v>429575.0017224005</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11687,7 +13633,7 @@
         <v>429575.0017224005</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11720,7 +13666,7 @@
         <v>429199.6392224005</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11753,7 +13699,7 @@
         <v>423939.0027224005</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11786,7 +13732,7 @@
         <v>424033.7090224005</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11819,7 +13765,7 @@
         <v>421116.3090224005</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12380,7 +14326,7 @@
         <v>423090.0415175227</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -17792,7 +19738,7 @@
         <v>485721.2102754489</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17825,7 +19771,7 @@
         <v>485721.2102754489</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17858,7 +19804,7 @@
         <v>485721.2102754489</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17891,7 +19837,7 @@
         <v>485721.2102754489</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17924,7 +19870,7 @@
         <v>485721.2102754489</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17957,7 +19903,7 @@
         <v>504915.1172754489</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17990,7 +19936,7 @@
         <v>504915.1172754489</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18023,7 +19969,7 @@
         <v>486906.7459754489</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18056,7 +20002,7 @@
         <v>486906.7459754489</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18089,7 +20035,7 @@
         <v>482746.3684754489</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18122,7 +20068,7 @@
         <v>482746.3684754489</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18155,7 +20101,7 @@
         <v>482746.3684754489</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18188,7 +20134,7 @@
         <v>482746.3684754489</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18221,7 +20167,7 @@
         <v>463496.2607754489</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18254,7 +20200,7 @@
         <v>481187.9244754489</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18287,7 +20233,7 @@
         <v>466445.9260754489</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18320,7 +20266,7 @@
         <v>448725.0517754489</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18353,7 +20299,7 @@
         <v>448725.0517754489</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18386,7 +20332,7 @@
         <v>430981.1214754489</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18584,7 +20530,7 @@
         <v>453372.9617754489</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19508,7 +21454,7 @@
         <v>581905.267775449</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19541,7 +21487,7 @@
         <v>581905.267775449</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19574,7 +21520,7 @@
         <v>579809.246575449</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19640,7 +21586,7 @@
         <v>569718.649275449</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19673,7 +21619,7 @@
         <v>570011.290975449</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19706,7 +21652,7 @@
         <v>570011.290975449</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19772,7 +21718,7 @@
         <v>572162.108175449</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19805,7 +21751,7 @@
         <v>572162.108175449</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19838,7 +21784,7 @@
         <v>572162.108175449</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19871,7 +21817,7 @@
         <v>572370.665675449</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19904,7 +21850,7 @@
         <v>572370.665675449</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19937,7 +21883,7 @@
         <v>572368.675675449</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19970,7 +21916,7 @@
         <v>572368.675675449</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20003,7 +21949,7 @@
         <v>572312.034975449</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20036,7 +21982,7 @@
         <v>572310.034975449</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20069,7 +22015,7 @@
         <v>572310.034975449</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20102,7 +22048,7 @@
         <v>572308.034975449</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20135,7 +22081,7 @@
         <v>572306.034975449</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20168,7 +22114,7 @@
         <v>572303.034975449</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20201,7 +22147,7 @@
         <v>572315.706375449</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20234,7 +22180,7 @@
         <v>572453.819375449</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20267,7 +22213,7 @@
         <v>572455.809375449</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20300,7 +22246,7 @@
         <v>572778.338675449</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20333,7 +22279,7 @@
         <v>567172.525075449</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20366,7 +22312,7 @@
         <v>567172.525075449</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20399,7 +22345,7 @@
         <v>567172.525075449</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20432,7 +22378,7 @@
         <v>566887.3466754491</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20465,7 +22411,7 @@
         <v>566885.3466754491</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20498,7 +22444,7 @@
         <v>565957.2344754491</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20531,7 +22477,7 @@
         <v>561306.194675449</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20564,7 +22510,7 @@
         <v>561306.194675449</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20597,7 +22543,7 @@
         <v>556308.4067754491</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20630,7 +22576,7 @@
         <v>556464.586275449</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22973,7 +24919,7 @@
         <v>363005.7057491651</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
